--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_1_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-673358.8645773288</v>
+        <v>-675324.3079315332</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2205471.037688713</v>
+        <v>2205471.037688715</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>263.2420339516669</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.172723217728509</v>
       </c>
       <c r="G2" t="n">
         <v>263.2420339516669</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>128.3571544049253</v>
       </c>
     </row>
     <row r="3">
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>54.60781292963763</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>130.9214025042173</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2195960887629</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>142.3870695882591</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.2812817067445</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>133.4178522743009</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.2812817067445</v>
+        <v>14.79469123548292</v>
       </c>
       <c r="H5" t="n">
-        <v>334.2717731542797</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>109.6790123967282</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.102558924788398</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>40.91089754358936</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>80.03761757124315</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>83.28060863594072</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>166.6340717775285</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>150.2058870833557</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.103936769694933</v>
       </c>
     </row>
     <row r="8">
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0390583653865</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1181,22 +1181,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>223.1544494232433</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>30.54110646053108</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>13.96214174992415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C11" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D11" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E11" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F11" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G11" t="n">
-        <v>401.6908603532261</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H11" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I11" t="n">
-        <v>76.15360292176766</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>125.3734930916124</v>
       </c>
       <c r="T11" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U11" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V11" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W11" t="n">
         <v>338.8435355868396</v>
@@ -1436,7 +1436,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y11" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>95.62503214164755</v>
       </c>
       <c r="I12" t="n">
-        <v>30.18149436614535</v>
+        <v>30.18149436614537</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>169.4345470513639</v>
+        <v>149.4124245666613</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F13" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G13" t="n">
-        <v>156.1516572966162</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I13" t="n">
-        <v>101.6915092090628</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>85.67720627475875</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.1255652060176</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X13" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C14" t="n">
-        <v>354.8754586404342</v>
+        <v>354.875458640434</v>
       </c>
       <c r="D14" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901094</v>
       </c>
       <c r="E14" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F14" t="n">
-        <v>396.4786126111381</v>
+        <v>396.4786126111379</v>
       </c>
       <c r="G14" t="n">
-        <v>401.6908603532261</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H14" t="n">
-        <v>296.1574440492784</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I14" t="n">
-        <v>76.15360292176771</v>
+        <v>76.15360292176757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T14" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U14" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V14" t="n">
-        <v>317.3548253395616</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W14" t="n">
-        <v>338.8435355868397</v>
+        <v>338.8435355868395</v>
       </c>
       <c r="X14" t="n">
-        <v>359.3336675478957</v>
+        <v>359.3336675478955</v>
       </c>
       <c r="Y14" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="15">
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>156.8493879680545</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>85.63568587780664</v>
       </c>
       <c r="E16" t="n">
-        <v>136.0365295159958</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F16" t="n">
-        <v>135.0236148923579</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>156.1516572966162</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>188.490973258735</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.8429477387572</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W16" t="n">
-        <v>276.1255652060177</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X16" t="n">
-        <v>177.4507477754684</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>372.3364085329072</v>
+        <v>372.3364085329071</v>
       </c>
       <c r="C17" t="n">
         <v>354.8754586404341</v>
       </c>
       <c r="D17" t="n">
-        <v>344.2856084901096</v>
+        <v>344.2856084901095</v>
       </c>
       <c r="E17" t="n">
-        <v>371.5329369416884</v>
+        <v>371.5329369416883</v>
       </c>
       <c r="F17" t="n">
         <v>396.478612611138</v>
       </c>
       <c r="G17" t="n">
-        <v>401.6908603532261</v>
+        <v>401.690860353226</v>
       </c>
       <c r="H17" t="n">
-        <v>296.1574440492783</v>
+        <v>296.1574440492782</v>
       </c>
       <c r="I17" t="n">
-        <v>76.15360292176767</v>
+        <v>76.1536029217676</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3734930916125</v>
+        <v>125.3734930916124</v>
       </c>
       <c r="T17" t="n">
-        <v>198.6271876863865</v>
+        <v>198.6271876863864</v>
       </c>
       <c r="U17" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V17" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395614</v>
       </c>
       <c r="W17" t="n">
         <v>338.8435355868396</v>
@@ -1910,7 +1910,7 @@
         <v>359.3336675478956</v>
       </c>
       <c r="Y17" t="n">
-        <v>375.8405055254802</v>
+        <v>375.8405055254801</v>
       </c>
     </row>
     <row r="18">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>76.76323552818923</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>156.8493879680544</v>
       </c>
       <c r="D19" t="n">
-        <v>138.218039887639</v>
+        <v>38.00157842601882</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>102.0633886642566</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V19" t="n">
-        <v>241.7402101932546</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W19" t="n">
-        <v>276.1255652060176</v>
+        <v>276.1255652060175</v>
       </c>
       <c r="X19" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I20" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>125.3734930916125</v>
       </c>
       <c r="T20" t="n">
-        <v>198.6271876863857</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U20" t="n">
         <v>240.6910642547562</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T22" t="n">
         <v>211.3873581368307</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V22" t="n">
-        <v>39.74492919750573</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W22" t="n">
         <v>276.1255652060176</v>
@@ -2305,7 +2305,7 @@
         <v>215.3122222584637</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.1872202215214</v>
+        <v>6.35999313533765</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I23" t="n">
-        <v>76.15360292176763</v>
+        <v>76.15360292176766</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3734930916124</v>
+        <v>125.3734930916125</v>
       </c>
       <c r="T23" t="n">
-        <v>198.6271876863864</v>
+        <v>198.6271876863865</v>
       </c>
       <c r="U23" t="n">
         <v>240.6910642547562</v>
       </c>
       <c r="V23" t="n">
-        <v>317.3548253395615</v>
+        <v>317.3548253395618</v>
       </c>
       <c r="W23" t="n">
         <v>338.8435355868396</v>
       </c>
       <c r="X23" t="n">
-        <v>359.3336675478963</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y23" t="n">
         <v>375.8405055254802</v>
@@ -2476,25 +2476,25 @@
         <v>169.4345470513639</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D25" t="n">
-        <v>138.2180398876389</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>103.604782674927</v>
       </c>
       <c r="G25" t="n">
-        <v>31.94636895483576</v>
+        <v>156.1516572966162</v>
       </c>
       <c r="H25" t="n">
-        <v>139.0100359697638</v>
+        <v>139.0100359697639</v>
       </c>
       <c r="I25" t="n">
-        <v>101.6915092090627</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.7402101932546</v>
@@ -2539,10 +2539,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>215.3122222584637</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>372.3364085329072</v>
       </c>
       <c r="C26" t="n">
-        <v>354.8754586404342</v>
+        <v>354.8754586404341</v>
       </c>
       <c r="D26" t="n">
         <v>344.2856084901096</v>
@@ -2564,16 +2564,16 @@
         <v>371.5329369416884</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4786126111381</v>
+        <v>396.478612611138</v>
       </c>
       <c r="G26" t="n">
         <v>401.6908603532261</v>
       </c>
       <c r="H26" t="n">
-        <v>296.1574440492784</v>
+        <v>296.1574440492783</v>
       </c>
       <c r="I26" t="n">
-        <v>76.1536029217675</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,16 +2609,16 @@
         <v>198.6271876863865</v>
       </c>
       <c r="U26" t="n">
-        <v>240.6910642547563</v>
+        <v>240.6910642547562</v>
       </c>
       <c r="V26" t="n">
-        <v>317.3548253395616</v>
+        <v>317.3548253395615</v>
       </c>
       <c r="W26" t="n">
-        <v>338.8435355868397</v>
+        <v>338.8435355868396</v>
       </c>
       <c r="X26" t="n">
-        <v>359.3336675478957</v>
+        <v>359.3336675478956</v>
       </c>
       <c r="Y26" t="n">
         <v>375.8405055254802</v>
@@ -2713,10 +2713,10 @@
         <v>169.4345470513639</v>
       </c>
       <c r="C28" t="n">
-        <v>156.8493879680545</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,22 +2761,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>113.5073794832179</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.8429477387574</v>
+        <v>251.1322873343364</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.1255652060177</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X28" t="n">
-        <v>215.3122222584638</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y28" t="n">
         <v>208.1872202215214</v>
@@ -2810,7 +2810,7 @@
         <v>296.1574440492783</v>
       </c>
       <c r="I29" t="n">
-        <v>76.15360292176766</v>
+        <v>76.15360292176767</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>169.4345470513639</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.359993135337433</v>
       </c>
       <c r="S31" t="n">
         <v>188.4909732587351</v>
@@ -3004,19 +3004,19 @@
         <v>211.3873581368307</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V31" t="n">
         <v>241.7402101932546</v>
       </c>
       <c r="W31" t="n">
-        <v>180.706738807227</v>
+        <v>276.1255652060176</v>
       </c>
       <c r="X31" t="n">
         <v>215.3122222584637</v>
       </c>
       <c r="Y31" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,10 +3029,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>350.5976822961042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>284.0398978788342</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088954</v>
       </c>
       <c r="H32" t="n">
-        <v>306.5548771798517</v>
+        <v>235.911733438003</v>
       </c>
       <c r="I32" t="n">
-        <v>86.55103605234106</v>
+        <v>15.90789231049231</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>65.12778248033709</v>
+        <v>135.7709262221859</v>
       </c>
       <c r="T32" t="n">
         <v>209.0246208169599</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.1888364400885</v>
+        <v>109.1888364400886</v>
       </c>
       <c r="C34" t="n">
-        <v>96.60367735677906</v>
+        <v>96.6036773567791</v>
       </c>
       <c r="D34" t="n">
-        <v>77.97232927636358</v>
+        <v>77.97232927636362</v>
       </c>
       <c r="E34" t="n">
-        <v>75.7908189047204</v>
+        <v>75.79081890472044</v>
       </c>
       <c r="F34" t="n">
-        <v>74.77790428108247</v>
+        <v>74.77790428108251</v>
       </c>
       <c r="G34" t="n">
-        <v>95.90594668534081</v>
+        <v>95.90594668534085</v>
       </c>
       <c r="H34" t="n">
-        <v>78.76432535848849</v>
+        <v>78.76432535848853</v>
       </c>
       <c r="I34" t="n">
-        <v>41.44579859778739</v>
+        <v>41.44579859778743</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.81767805298125</v>
+        <v>41.81767805297972</v>
       </c>
       <c r="S34" t="n">
         <v>128.2452626474598</v>
       </c>
       <c r="T34" t="n">
-        <v>151.1416475255553</v>
+        <v>151.1416475255554</v>
       </c>
       <c r="U34" t="n">
         <v>215.597237127482</v>
       </c>
       <c r="V34" t="n">
-        <v>181.4944995819792</v>
+        <v>181.4944995819793</v>
       </c>
       <c r="W34" t="n">
-        <v>215.8798545947422</v>
+        <v>215.8798545947423</v>
       </c>
       <c r="X34" t="n">
         <v>155.0665116471884</v>
@@ -3320,7 +3320,7 @@
         <v>209.0246208169599</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0884973853296</v>
+        <v>236.4132879104258</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>355.0558912035648</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,25 +3424,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C37" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677903</v>
       </c>
       <c r="D37" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636355</v>
       </c>
       <c r="E37" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472037</v>
       </c>
       <c r="F37" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108244</v>
       </c>
       <c r="G37" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534078</v>
       </c>
       <c r="H37" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848846</v>
       </c>
       <c r="I37" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778736</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298122</v>
       </c>
       <c r="S37" t="n">
         <v>128.2452626474597</v>
@@ -3506,22 +3506,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>284.0398978788342</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>392.2008362668074</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088962</v>
       </c>
       <c r="H38" t="n">
-        <v>235.9117334380029</v>
+        <v>306.5548771798517</v>
       </c>
       <c r="I38" t="n">
-        <v>15.90789231049226</v>
+        <v>86.55103605234106</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>135.7709262221859</v>
       </c>
       <c r="T38" t="n">
-        <v>209.0246208169599</v>
+        <v>138.3814770751111</v>
       </c>
       <c r="U38" t="n">
         <v>251.0884973853296</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>340.0078321457802</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>412.0882934837995</v>
+        <v>397.4130840088955</v>
       </c>
       <c r="H41" t="n">
-        <v>306.5548771798517</v>
+        <v>235.9117334380029</v>
       </c>
       <c r="I41" t="n">
-        <v>86.55103605234106</v>
+        <v>15.90789231049226</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>65.12778248033703</v>
+        <v>135.7709262221859</v>
       </c>
       <c r="T41" t="n">
-        <v>138.3814770751111</v>
+        <v>209.0246208169599</v>
       </c>
       <c r="U41" t="n">
         <v>251.0884973853296</v>
@@ -3898,25 +3898,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C43" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677904</v>
       </c>
       <c r="D43" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636357</v>
       </c>
       <c r="E43" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472038</v>
       </c>
       <c r="F43" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108246</v>
       </c>
       <c r="G43" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534079</v>
       </c>
       <c r="H43" t="n">
-        <v>78.76432535848845</v>
+        <v>78.76432535848848</v>
       </c>
       <c r="I43" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778737</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S43" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T43" t="n">
         <v>151.1416475255553</v>
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>350.5976822961033</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>341.4451497419507</v>
+        <v>397.4130840088962</v>
       </c>
       <c r="H44" t="n">
         <v>306.5548771798517</v>
       </c>
       <c r="I44" t="n">
-        <v>86.55103605234106</v>
+        <v>15.90789231049226</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>135.7709262221859</v>
+        <v>65.12778248033709</v>
       </c>
       <c r="T44" t="n">
         <v>209.0246208169599</v>
       </c>
       <c r="U44" t="n">
-        <v>180.4453536434808</v>
+        <v>251.0884973853296</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4135,25 +4135,25 @@
         <v>109.1888364400885</v>
       </c>
       <c r="C46" t="n">
-        <v>96.60367735677902</v>
+        <v>96.60367735677904</v>
       </c>
       <c r="D46" t="n">
-        <v>77.97232927636354</v>
+        <v>77.97232927636357</v>
       </c>
       <c r="E46" t="n">
-        <v>75.79081890472035</v>
+        <v>75.79081890472038</v>
       </c>
       <c r="F46" t="n">
-        <v>74.77790428108243</v>
+        <v>74.77790428108246</v>
       </c>
       <c r="G46" t="n">
-        <v>95.90594668534077</v>
+        <v>95.90594668534079</v>
       </c>
       <c r="H46" t="n">
-        <v>78.76432535848843</v>
+        <v>78.76432535848848</v>
       </c>
       <c r="I46" t="n">
-        <v>41.44579859778734</v>
+        <v>41.44579859778737</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.81767805298121</v>
+        <v>41.81767805298124</v>
       </c>
       <c r="S46" t="n">
-        <v>128.2452626474597</v>
+        <v>128.2452626474598</v>
       </c>
       <c r="T46" t="n">
         <v>151.1416475255553</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>296.2257840993611</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="C2" t="n">
-        <v>296.2257840993611</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="D2" t="n">
-        <v>296.2257840993611</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="E2" t="n">
-        <v>296.2257840993611</v>
+        <v>552.8614515073797</v>
       </c>
       <c r="F2" t="n">
         <v>286.9604071117565</v>
@@ -4331,16 +4331,16 @@
         <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573683</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L2" t="n">
         <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098028</v>
+        <v>563.3128681098027</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369336</v>
+        <v>785.5101925369335</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885148</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S2" t="n">
-        <v>1052.968135806668</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="T2" t="n">
-        <v>828.0278728906073</v>
+        <v>682.515142825486</v>
       </c>
       <c r="U2" t="n">
-        <v>828.0278728906073</v>
+        <v>682.515142825486</v>
       </c>
       <c r="V2" t="n">
-        <v>828.0278728906073</v>
+        <v>682.515142825486</v>
       </c>
       <c r="W2" t="n">
-        <v>562.1268284949842</v>
+        <v>682.515142825486</v>
       </c>
       <c r="X2" t="n">
-        <v>562.1268284949842</v>
+        <v>682.515142825486</v>
       </c>
       <c r="Y2" t="n">
-        <v>562.1268284949842</v>
+        <v>552.8614515073797</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>316.5283303504996</v>
+        <v>189.10500585444</v>
       </c>
       <c r="C3" t="n">
-        <v>316.5283303504996</v>
+        <v>189.10500585444</v>
       </c>
       <c r="D3" t="n">
-        <v>167.5939206892484</v>
+        <v>189.10500585444</v>
       </c>
       <c r="E3" t="n">
-        <v>167.5939206892484</v>
+        <v>189.10500585444</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613335</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613335</v>
+        <v>133.9455988548061</v>
       </c>
       <c r="H3" t="n">
         <v>21.05936271613335</v>
@@ -4407,25 +4407,25 @@
         <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>24.95018035683216</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K3" t="n">
-        <v>24.95018035683216</v>
+        <v>154.3302328992136</v>
       </c>
       <c r="L3" t="n">
-        <v>265.5537082516947</v>
+        <v>394.9337607940762</v>
       </c>
       <c r="M3" t="n">
-        <v>526.1633218638449</v>
+        <v>655.5433744062263</v>
       </c>
       <c r="N3" t="n">
-        <v>786.7729354759952</v>
+        <v>716.9050068346276</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285688</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806668</v>
@@ -4434,25 +4434,25 @@
         <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806668</v>
+        <v>880.4795283993085</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806668</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="U3" t="n">
-        <v>824.7478070488723</v>
+        <v>678.4944708143844</v>
       </c>
       <c r="V3" t="n">
-        <v>824.7478070488723</v>
+        <v>443.3423625826417</v>
       </c>
       <c r="W3" t="n">
-        <v>824.7478070488723</v>
+        <v>189.10500585444</v>
       </c>
       <c r="X3" t="n">
-        <v>692.5039661355215</v>
+        <v>189.10500585444</v>
       </c>
       <c r="Y3" t="n">
-        <v>484.7436673705677</v>
+        <v>189.10500585444</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="C4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613335</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="K4" t="n">
         <v>21.05936271613335</v>
@@ -4510,28 +4510,28 @@
         <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>171.1760021284691</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="T4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="U4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="V4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="W4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="X4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.1760021284691</v>
+        <v>38.68360465423044</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>889.1389743904034</v>
+        <v>438.260388445081</v>
       </c>
       <c r="C5" t="n">
-        <v>889.1389743904034</v>
+        <v>438.260388445081</v>
       </c>
       <c r="D5" t="n">
-        <v>889.1389743904034</v>
+        <v>438.260388445081</v>
       </c>
       <c r="E5" t="n">
-        <v>889.1389743904034</v>
+        <v>52.47213584683682</v>
       </c>
       <c r="F5" t="n">
-        <v>754.3734670426247</v>
+        <v>45.52663509763335</v>
       </c>
       <c r="G5" t="n">
-        <v>368.2307582479332</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="H5" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="I5" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J5" t="n">
-        <v>61.44130107382216</v>
+        <v>61.44130107382182</v>
       </c>
       <c r="K5" t="n">
-        <v>228.4354450105916</v>
+        <v>228.435445010591</v>
       </c>
       <c r="L5" t="n">
-        <v>487.8830747386923</v>
+        <v>487.8830747386911</v>
       </c>
       <c r="M5" t="n">
-        <v>793.1750984905443</v>
+        <v>793.1750984905427</v>
       </c>
       <c r="N5" t="n">
-        <v>1088.775068813873</v>
+        <v>1088.775068813871</v>
       </c>
       <c r="O5" t="n">
-        <v>1322.714100731252</v>
+        <v>1322.714100731249</v>
       </c>
       <c r="P5" t="n">
-        <v>1484.701269194411</v>
+        <v>1484.701269194408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1529.125126826978</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="R5" t="n">
-        <v>1529.125126826978</v>
+        <v>1418.338245618158</v>
       </c>
       <c r="S5" t="n">
-        <v>1529.125126826978</v>
+        <v>1418.338245618158</v>
       </c>
       <c r="T5" t="n">
-        <v>1529.125126826978</v>
+        <v>1418.338245618158</v>
       </c>
       <c r="U5" t="n">
-        <v>1275.281683185095</v>
+        <v>1164.494801976275</v>
       </c>
       <c r="V5" t="n">
-        <v>1275.281683185095</v>
+        <v>1164.494801976275</v>
       </c>
       <c r="W5" t="n">
-        <v>1275.281683185095</v>
+        <v>811.726146706161</v>
       </c>
       <c r="X5" t="n">
-        <v>1275.281683185095</v>
+        <v>438.260388445081</v>
       </c>
       <c r="Y5" t="n">
-        <v>1275.281683185095</v>
+        <v>438.260388445081</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>740.5880328122795</v>
+        <v>541.8286383849513</v>
       </c>
       <c r="C6" t="n">
-        <v>566.1350035311525</v>
+        <v>367.3756091038243</v>
       </c>
       <c r="D6" t="n">
-        <v>417.2005938699012</v>
+        <v>218.4411994425731</v>
       </c>
       <c r="E6" t="n">
-        <v>257.9631388644457</v>
+        <v>177.1170605096545</v>
       </c>
       <c r="F6" t="n">
-        <v>111.4285808913306</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="G6" t="n">
-        <v>111.4285808913306</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="H6" t="n">
-        <v>111.4285808913306</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="I6" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J6" t="n">
-        <v>55.26841185840821</v>
+        <v>55.268411858408</v>
       </c>
       <c r="K6" t="n">
-        <v>224.0814059180786</v>
+        <v>55.268411858408</v>
       </c>
       <c r="L6" t="n">
-        <v>225.394788295547</v>
+        <v>343.6627114758603</v>
       </c>
       <c r="M6" t="n">
-        <v>603.853257185224</v>
+        <v>722.1211803655365</v>
       </c>
       <c r="N6" t="n">
-        <v>982.3117260749011</v>
+        <v>1100.579649255213</v>
       </c>
       <c r="O6" t="n">
-        <v>1295.093358870258</v>
+        <v>1413.36128205057</v>
       </c>
       <c r="P6" t="n">
-        <v>1529.125126826978</v>
+        <v>1425.378857115304</v>
       </c>
       <c r="Q6" t="n">
-        <v>1529.125126826978</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.003299921987</v>
+        <v>1529.125126826975</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.003299921987</v>
+        <v>1360.807882607249</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.003299921987</v>
+        <v>1360.807882607249</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.003299921987</v>
+        <v>1360.807882607249</v>
       </c>
       <c r="V6" t="n">
-        <v>1209.851191690245</v>
+        <v>1125.655774375506</v>
       </c>
       <c r="W6" t="n">
-        <v>955.613834962043</v>
+        <v>1125.655774375506</v>
       </c>
       <c r="X6" t="n">
-        <v>747.7623347565102</v>
+        <v>917.8042741699733</v>
       </c>
       <c r="Y6" t="n">
-        <v>747.7623347565102</v>
+        <v>710.0439754050194</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>177.4724500344499</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="C7" t="n">
-        <v>177.4724500344499</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="D7" t="n">
-        <v>177.4724500344499</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="E7" t="n">
-        <v>177.4724500344499</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="F7" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="G7" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="H7" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="I7" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="J7" t="n">
-        <v>30.58250253653956</v>
+        <v>30.58250253653949</v>
       </c>
       <c r="K7" t="n">
-        <v>34.74785162775834</v>
+        <v>34.74785162775814</v>
       </c>
       <c r="L7" t="n">
-        <v>95.60449898798115</v>
+        <v>95.60449898798075</v>
       </c>
       <c r="M7" t="n">
-        <v>170.158423992257</v>
+        <v>170.1584239922564</v>
       </c>
       <c r="N7" t="n">
-        <v>248.3742397180002</v>
+        <v>248.3742397179994</v>
       </c>
       <c r="O7" t="n">
-        <v>304.6029096228531</v>
+        <v>304.6029096228522</v>
       </c>
       <c r="P7" t="n">
-        <v>329.1955683004658</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="Q7" t="n">
-        <v>329.1955683004658</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="R7" t="n">
-        <v>177.4724500344499</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="S7" t="n">
-        <v>177.4724500344499</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="T7" t="n">
-        <v>177.4724500344499</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="U7" t="n">
-        <v>177.4724500344499</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="V7" t="n">
-        <v>177.4724500344499</v>
+        <v>329.1955683004647</v>
       </c>
       <c r="W7" t="n">
-        <v>177.4724500344499</v>
+        <v>39.77839826350407</v>
       </c>
       <c r="X7" t="n">
-        <v>177.4724500344499</v>
+        <v>39.77839826350407</v>
       </c>
       <c r="Y7" t="n">
-        <v>177.4724500344499</v>
+        <v>30.58250253653949</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1470.569074795015</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>1470.569074795015</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>1112.303376188265</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>726.5151235900203</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>315.5292188004127</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W8" t="n">
-        <v>2247.308246834948</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X8" t="n">
-        <v>2247.308246834948</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y8" t="n">
-        <v>1857.168914859137</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,28 +4884,28 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.1627947174721</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>218.1627947174721</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>68.04615530513632</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.1627947174721</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C11" t="n">
         <v>1999.551214482917</v>
@@ -5027,43 +5027,43 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F11" t="n">
-        <v>876.0187316112639</v>
+        <v>876.0187316112646</v>
       </c>
       <c r="G11" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201273</v>
       </c>
       <c r="H11" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I11" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J11" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K11" t="n">
-        <v>860.2779741677795</v>
+        <v>860.27797416778</v>
       </c>
       <c r="L11" t="n">
-        <v>1542.544568462677</v>
+        <v>1542.544568462678</v>
       </c>
       <c r="M11" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N11" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O11" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P11" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q11" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R11" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S11" t="n">
         <v>4583.291268133685</v>
@@ -5084,7 +5084,7 @@
         <v>3113.745530340312</v>
       </c>
       <c r="Y11" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I12" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J12" t="n">
-        <v>129.4953301443202</v>
+        <v>129.4953301443201</v>
       </c>
       <c r="K12" t="n">
-        <v>267.9778490088836</v>
+        <v>267.9778490088834</v>
       </c>
       <c r="L12" t="n">
-        <v>867.6391684321557</v>
+        <v>500.5072265817307</v>
       </c>
       <c r="M12" t="n">
-        <v>1158.346852529751</v>
+        <v>1252.262923791826</v>
       </c>
       <c r="N12" t="n">
-        <v>1471.157348913446</v>
+        <v>2039.622370775639</v>
       </c>
       <c r="O12" t="n">
-        <v>2038.543327167808</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P12" t="n">
         <v>2546.324080243319</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>491.0337559281967</v>
+        <v>666.1398733794066</v>
       </c>
       <c r="C13" t="n">
-        <v>491.0337559281967</v>
+        <v>666.1398733794066</v>
       </c>
       <c r="D13" t="n">
-        <v>491.0337559281967</v>
+        <v>666.1398733794066</v>
       </c>
       <c r="E13" t="n">
-        <v>491.0337559281967</v>
+        <v>528.7292375046635</v>
       </c>
       <c r="F13" t="n">
-        <v>354.6462661379363</v>
+        <v>392.3417477144031</v>
       </c>
       <c r="G13" t="n">
-        <v>196.9173193736788</v>
+        <v>234.6128009501444</v>
       </c>
       <c r="H13" t="n">
-        <v>196.9173193736788</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I13" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J13" t="n">
-        <v>112.9886256529935</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K13" t="n">
-        <v>267.0813524192177</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L13" t="n">
-        <v>516.9148004639833</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M13" t="n">
-        <v>790.1587150323428</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N13" t="n">
         <v>1062.584871907533</v>
@@ -5230,19 +5230,19 @@
         <v>1523.75344131139</v>
       </c>
       <c r="U13" t="n">
-        <v>1245.124201171231</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="V13" t="n">
-        <v>1158.581568570465</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="W13" t="n">
-        <v>879.6668562411541</v>
+        <v>1244.838728982079</v>
       </c>
       <c r="X13" t="n">
-        <v>662.1797630507865</v>
+        <v>1027.351635791712</v>
       </c>
       <c r="Y13" t="n">
-        <v>662.1797630507865</v>
+        <v>817.0615143558318</v>
       </c>
     </row>
     <row r="14">
@@ -5267,25 +5267,25 @@
         <v>876.0187316112638</v>
       </c>
       <c r="G14" t="n">
-        <v>470.2703878201266</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H14" t="n">
-        <v>171.1214544370171</v>
+        <v>171.1214544370177</v>
       </c>
       <c r="I14" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290909</v>
       </c>
       <c r="J14" t="n">
-        <v>352.4625266553653</v>
+        <v>352.4625266553649</v>
       </c>
       <c r="K14" t="n">
-        <v>860.2779741677806</v>
+        <v>860.2779741677805</v>
       </c>
       <c r="L14" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462679</v>
       </c>
       <c r="M14" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787664</v>
       </c>
       <c r="N14" t="n">
         <v>3091.984352769975</v>
@@ -5297,16 +5297,16 @@
         <v>4324.639697485003</v>
       </c>
       <c r="Q14" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222605</v>
       </c>
       <c r="R14" t="n">
-        <v>4709.931160145416</v>
+        <v>4709.931160145415</v>
       </c>
       <c r="S14" t="n">
-        <v>4583.291268133686</v>
+        <v>4583.291268133685</v>
       </c>
       <c r="T14" t="n">
-        <v>4382.657745218144</v>
+        <v>4382.657745218143</v>
       </c>
       <c r="U14" t="n">
         <v>4139.535458092127</v>
@@ -5352,7 +5352,7 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I15" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J15" t="n">
         <v>129.4953301443201</v>
@@ -5370,10 +5370,10 @@
         <v>1732.977933555899</v>
       </c>
       <c r="O15" t="n">
-        <v>1996.918630057341</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P15" t="n">
-        <v>2504.699383132852</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q15" t="n">
         <v>2625.087782060009</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.1594208524281</v>
+        <v>318.1099518835167</v>
       </c>
       <c r="C16" t="n">
-        <v>525.725695632171</v>
+        <v>318.1099518835167</v>
       </c>
       <c r="D16" t="n">
-        <v>525.725695632171</v>
+        <v>231.6092590776514</v>
       </c>
       <c r="E16" t="n">
-        <v>388.3150597574277</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="F16" t="n">
-        <v>251.9275699671671</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="G16" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="H16" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="I16" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290829</v>
       </c>
       <c r="J16" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K16" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L16" t="n">
-        <v>516.9148004639828</v>
+        <v>516.9148004639834</v>
       </c>
       <c r="M16" t="n">
-        <v>790.1587150323421</v>
+        <v>790.1587150323428</v>
       </c>
       <c r="N16" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O16" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272059</v>
       </c>
       <c r="P16" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q16" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="R16" t="n">
-        <v>1523.753441311389</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S16" t="n">
-        <v>1523.753441311389</v>
+        <v>1333.35851882782</v>
       </c>
       <c r="T16" t="n">
-        <v>1523.753441311389</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.753441311389</v>
+        <v>841.2066947110643</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.753441311389</v>
+        <v>597.0246642128275</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.838728982078</v>
+        <v>318.1099518835167</v>
       </c>
       <c r="X16" t="n">
-        <v>1065.595549410898</v>
+        <v>318.1099518835167</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.3054279750179</v>
+        <v>318.1099518835167</v>
       </c>
     </row>
     <row r="17">
@@ -5495,37 +5495,37 @@
         <v>1999.551214482917</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E17" t="n">
         <v>1276.502178693223</v>
       </c>
       <c r="F17" t="n">
-        <v>876.0187316112648</v>
+        <v>876.0187316112651</v>
       </c>
       <c r="G17" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201268</v>
       </c>
       <c r="H17" t="n">
-        <v>171.1214544370171</v>
+        <v>171.121454437017</v>
       </c>
       <c r="I17" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J17" t="n">
-        <v>352.4625266553642</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K17" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677787</v>
       </c>
       <c r="L17" t="n">
         <v>1542.544568462677</v>
       </c>
       <c r="M17" t="n">
-        <v>2318.304158787662</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N17" t="n">
-        <v>3091.984352769974</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O17" t="n">
         <v>3777.360983129467</v>
@@ -5534,28 +5534,28 @@
         <v>4324.639697485002</v>
       </c>
       <c r="Q17" t="n">
-        <v>4658.401460222603</v>
+        <v>4658.401460222604</v>
       </c>
       <c r="R17" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S17" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T17" t="n">
-        <v>4382.657745218143</v>
+        <v>4382.657745218144</v>
       </c>
       <c r="U17" t="n">
         <v>4139.535458092128</v>
       </c>
       <c r="V17" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456207</v>
       </c>
       <c r="W17" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893743</v>
       </c>
       <c r="X17" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340313</v>
       </c>
       <c r="Y17" t="n">
         <v>2734.108656072151</v>
@@ -5589,7 +5589,7 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I18" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J18" t="n">
         <v>129.4953301443201</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.2465301278512</v>
+        <v>291.0177811767198</v>
       </c>
       <c r="C19" t="n">
-        <v>233.8128049075941</v>
+        <v>132.5840559564629</v>
       </c>
       <c r="D19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="E19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I19" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J19" t="n">
-        <v>112.9886256529933</v>
+        <v>112.9886256529934</v>
       </c>
       <c r="K19" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L19" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M19" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N19" t="n">
         <v>1062.584871907533</v>
       </c>
       <c r="O19" t="n">
-        <v>1298.984009272058</v>
+        <v>1298.984009272059</v>
       </c>
       <c r="P19" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q19" t="n">
         <v>1523.75344131139</v>
       </c>
       <c r="R19" t="n">
-        <v>1420.659109327292</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="S19" t="n">
-        <v>1420.659109327292</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T19" t="n">
-        <v>1420.659109327292</v>
+        <v>1310.230857334794</v>
       </c>
       <c r="U19" t="n">
-        <v>1420.659109327292</v>
+        <v>1031.601617194635</v>
       </c>
       <c r="V19" t="n">
-        <v>1176.477078829055</v>
+        <v>787.4195866963979</v>
       </c>
       <c r="W19" t="n">
-        <v>897.5623664997444</v>
+        <v>508.5048743670872</v>
       </c>
       <c r="X19" t="n">
-        <v>680.0752733093769</v>
+        <v>291.0177811767198</v>
       </c>
       <c r="Y19" t="n">
-        <v>469.7851518734969</v>
+        <v>291.0177811767198</v>
       </c>
     </row>
     <row r="20">
@@ -5726,31 +5726,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2358.011273715678</v>
+        <v>2358.011273715679</v>
       </c>
       <c r="C20" t="n">
         <v>1999.551214482917</v>
       </c>
       <c r="D20" t="n">
-        <v>1651.787973583816</v>
+        <v>1651.787973583817</v>
       </c>
       <c r="E20" t="n">
-        <v>1276.502178693222</v>
+        <v>1276.502178693223</v>
       </c>
       <c r="F20" t="n">
-        <v>876.018731611264</v>
+        <v>876.0187316112648</v>
       </c>
       <c r="G20" t="n">
-        <v>470.2703878201265</v>
+        <v>470.2703878201273</v>
       </c>
       <c r="H20" t="n">
         <v>171.1214544370171</v>
       </c>
       <c r="I20" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J20" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553642</v>
       </c>
       <c r="K20" t="n">
         <v>860.2779741677793</v>
@@ -5759,25 +5759,25 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M20" t="n">
-        <v>2318.304158787661</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N20" t="n">
-        <v>3091.984352769973</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O20" t="n">
-        <v>3777.360983129466</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P20" t="n">
-        <v>4324.639697485001</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q20" t="n">
         <v>4658.401460222603</v>
       </c>
       <c r="R20" t="n">
-        <v>4709.931160145415</v>
+        <v>4709.931160145416</v>
       </c>
       <c r="S20" t="n">
-        <v>4583.291268133685</v>
+        <v>4583.291268133686</v>
       </c>
       <c r="T20" t="n">
         <v>4382.657745218144</v>
@@ -5786,16 +5786,16 @@
         <v>4139.535458092128</v>
       </c>
       <c r="V20" t="n">
-        <v>3818.975028456206</v>
+        <v>3818.975028456208</v>
       </c>
       <c r="W20" t="n">
-        <v>3476.708830893742</v>
+        <v>3476.708830893744</v>
       </c>
       <c r="X20" t="n">
-        <v>3113.745530340312</v>
+        <v>3113.745530340313</v>
       </c>
       <c r="Y20" t="n">
-        <v>2734.10865607215</v>
+        <v>2734.108656072151</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>124.6849811485097</v>
       </c>
       <c r="I21" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J21" t="n">
-        <v>129.4953301443201</v>
+        <v>179.7537309885845</v>
       </c>
       <c r="K21" t="n">
-        <v>267.9778490088835</v>
+        <v>318.2362498531479</v>
       </c>
       <c r="L21" t="n">
-        <v>500.5072265817309</v>
+        <v>550.7656274259953</v>
       </c>
       <c r="M21" t="n">
-        <v>1252.262923791826</v>
+        <v>1302.521324636091</v>
       </c>
       <c r="N21" t="n">
-        <v>2039.622370775639</v>
+        <v>2089.880771619903</v>
       </c>
       <c r="O21" t="n">
-        <v>2303.563067277081</v>
+        <v>2353.821468121346</v>
       </c>
       <c r="P21" t="n">
-        <v>2496.065679399054</v>
+        <v>2546.324080243319</v>
       </c>
       <c r="Q21" t="n">
         <v>2625.087782060009</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.2465301278511</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="C22" t="n">
-        <v>233.812804907594</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="D22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="E22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="F22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="G22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="H22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I22" t="n">
-        <v>94.19862320290829</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="J22" t="n">
-        <v>112.9886256529932</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K22" t="n">
-        <v>267.0813524192174</v>
+        <v>267.0813524192175</v>
       </c>
       <c r="L22" t="n">
-        <v>516.9148004639829</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M22" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N22" t="n">
         <v>1062.584871907533</v>
@@ -5926,7 +5926,7 @@
         <v>1298.984009272058</v>
       </c>
       <c r="P22" t="n">
-        <v>1479.229254818016</v>
+        <v>1479.229254818017</v>
       </c>
       <c r="Q22" t="n">
         <v>1523.75344131139</v>
@@ -5935,25 +5935,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S22" t="n">
-        <v>1523.75344131139</v>
+        <v>1333.358518827819</v>
       </c>
       <c r="T22" t="n">
-        <v>1310.230857334793</v>
+        <v>1119.835934851223</v>
       </c>
       <c r="U22" t="n">
-        <v>1310.230857334793</v>
+        <v>841.2066947110636</v>
       </c>
       <c r="V22" t="n">
-        <v>1270.084464205999</v>
+        <v>597.0246642128266</v>
       </c>
       <c r="W22" t="n">
-        <v>991.1697518766886</v>
+        <v>318.1099518835159</v>
       </c>
       <c r="X22" t="n">
-        <v>773.6826586863211</v>
+        <v>100.6228586931484</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.3925372504409</v>
+        <v>94.19862320290831</v>
       </c>
     </row>
     <row r="23">
@@ -5975,22 +5975,22 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F23" t="n">
-        <v>876.0187316112639</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G23" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H23" t="n">
-        <v>171.121454437017</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I23" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J23" t="n">
-        <v>352.4625266553641</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K23" t="n">
-        <v>860.2779741677793</v>
+        <v>860.2779741677792</v>
       </c>
       <c r="L23" t="n">
         <v>1542.544568462677</v>
@@ -6023,10 +6023,10 @@
         <v>4139.535458092128</v>
       </c>
       <c r="V23" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W23" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X23" t="n">
         <v>3113.745530340312</v>
@@ -6069,19 +6069,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K24" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L24" t="n">
-        <v>867.6391684321555</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.346852529751</v>
+        <v>1420.167437172204</v>
       </c>
       <c r="N24" t="n">
-        <v>1945.706299513564</v>
+        <v>1774.602630666366</v>
       </c>
       <c r="O24" t="n">
-        <v>2209.646996015006</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P24" t="n">
         <v>2546.324080243319</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>509.2147383759396</v>
+        <v>795.0409502705853</v>
       </c>
       <c r="C25" t="n">
-        <v>509.2147383759396</v>
+        <v>636.6072250503283</v>
       </c>
       <c r="D25" t="n">
-        <v>369.6005566712538</v>
+        <v>496.9930433456427</v>
       </c>
       <c r="E25" t="n">
-        <v>369.6005566712538</v>
+        <v>496.9930433456427</v>
       </c>
       <c r="F25" t="n">
-        <v>369.6005566712538</v>
+        <v>392.3417477144033</v>
       </c>
       <c r="G25" t="n">
-        <v>337.3314971209149</v>
+        <v>234.6128009501446</v>
       </c>
       <c r="H25" t="n">
-        <v>196.9173193736787</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="I25" t="n">
         <v>94.19862320290831</v>
@@ -6151,10 +6151,10 @@
         <v>267.0813524192175</v>
       </c>
       <c r="L25" t="n">
-        <v>516.9148004639832</v>
+        <v>516.9148004639831</v>
       </c>
       <c r="M25" t="n">
-        <v>790.1587150323426</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N25" t="n">
         <v>1062.584871907533</v>
@@ -6169,28 +6169,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R25" t="n">
-        <v>1420.659109327293</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="S25" t="n">
-        <v>1420.659109327293</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="T25" t="n">
-        <v>1420.659109327293</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="U25" t="n">
-        <v>1142.029869187134</v>
+        <v>1420.659109327292</v>
       </c>
       <c r="V25" t="n">
-        <v>897.8478386888969</v>
+        <v>1176.477078829055</v>
       </c>
       <c r="W25" t="n">
-        <v>897.8478386888969</v>
+        <v>1176.477078829055</v>
       </c>
       <c r="X25" t="n">
-        <v>680.3607454985295</v>
+        <v>1176.477078829055</v>
       </c>
       <c r="Y25" t="n">
-        <v>680.3607454985295</v>
+        <v>966.1869573931751</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C26" t="n">
         <v>1999.551214482917</v>
@@ -6212,34 +6212,34 @@
         <v>1276.502178693222</v>
       </c>
       <c r="F26" t="n">
-        <v>876.0187316112639</v>
+        <v>876.018731611264</v>
       </c>
       <c r="G26" t="n">
-        <v>470.2703878201264</v>
+        <v>470.2703878201265</v>
       </c>
       <c r="H26" t="n">
-        <v>171.1214544370169</v>
+        <v>171.1214544370171</v>
       </c>
       <c r="I26" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J26" t="n">
-        <v>352.4625266553653</v>
+        <v>352.4625266553639</v>
       </c>
       <c r="K26" t="n">
-        <v>860.2779741677805</v>
+        <v>860.2779741677787</v>
       </c>
       <c r="L26" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M26" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787661</v>
       </c>
       <c r="N26" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769973</v>
       </c>
       <c r="O26" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P26" t="n">
         <v>4324.639697485003</v>
@@ -6257,19 +6257,19 @@
         <v>4382.657745218144</v>
       </c>
       <c r="U26" t="n">
-        <v>4139.535458092128</v>
+        <v>4139.535458092127</v>
       </c>
       <c r="V26" t="n">
-        <v>3818.975028456207</v>
+        <v>3818.975028456206</v>
       </c>
       <c r="W26" t="n">
-        <v>3476.708830893743</v>
+        <v>3476.708830893742</v>
       </c>
       <c r="X26" t="n">
-        <v>3113.745530340313</v>
+        <v>3113.745530340312</v>
       </c>
       <c r="Y26" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K27" t="n">
-        <v>318.2362498531479</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L27" t="n">
-        <v>550.7656274259953</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.521324636091</v>
+        <v>1461.792134282671</v>
       </c>
       <c r="N27" t="n">
-        <v>2089.880771619903</v>
+        <v>1774.602630666366</v>
       </c>
       <c r="O27" t="n">
-        <v>2353.821468121346</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P27" t="n">
         <v>2546.324080243319</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>252.6323484231654</v>
+        <v>392.2465301278512</v>
       </c>
       <c r="C28" t="n">
-        <v>94.19862320290831</v>
+        <v>233.8128049075941</v>
       </c>
       <c r="D28" t="n">
         <v>94.19862320290831</v>
@@ -6382,19 +6382,19 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J28" t="n">
-        <v>112.9886256529932</v>
+        <v>112.9886256529933</v>
       </c>
       <c r="K28" t="n">
         <v>267.0813524192174</v>
       </c>
       <c r="L28" t="n">
-        <v>516.9148004639828</v>
+        <v>516.9148004639829</v>
       </c>
       <c r="M28" t="n">
-        <v>790.1587150323421</v>
+        <v>790.1587150323423</v>
       </c>
       <c r="N28" t="n">
-        <v>1062.584871907532</v>
+        <v>1062.584871907533</v>
       </c>
       <c r="O28" t="n">
         <v>1298.984009272058</v>
@@ -6409,25 +6409,25 @@
         <v>1523.75344131139</v>
       </c>
       <c r="S28" t="n">
-        <v>1409.099522641473</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="T28" t="n">
-        <v>1409.099522641473</v>
+        <v>1523.75344131139</v>
       </c>
       <c r="U28" t="n">
-        <v>1130.470282501314</v>
+        <v>1270.084464205999</v>
       </c>
       <c r="V28" t="n">
-        <v>1130.470282501314</v>
+        <v>1270.084464205999</v>
       </c>
       <c r="W28" t="n">
-        <v>851.5555701720029</v>
+        <v>991.1697518766887</v>
       </c>
       <c r="X28" t="n">
-        <v>634.0684769816354</v>
+        <v>773.6826586863212</v>
       </c>
       <c r="Y28" t="n">
-        <v>423.7783555457552</v>
+        <v>563.392537250441</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2358.011273715679</v>
+        <v>2358.011273715678</v>
       </c>
       <c r="C29" t="n">
         <v>1999.551214482917</v>
       </c>
       <c r="D29" t="n">
-        <v>1651.787973583817</v>
+        <v>1651.787973583816</v>
       </c>
       <c r="E29" t="n">
-        <v>1276.502178693223</v>
+        <v>1276.502178693222</v>
       </c>
       <c r="F29" t="n">
-        <v>876.0187316112648</v>
+        <v>876.0187316112639</v>
       </c>
       <c r="G29" t="n">
-        <v>470.2703878201273</v>
+        <v>470.2703878201264</v>
       </c>
       <c r="H29" t="n">
         <v>171.1214544370171</v>
@@ -6506,7 +6506,7 @@
         <v>3113.745530340313</v>
       </c>
       <c r="Y29" t="n">
-        <v>2734.108656072151</v>
+        <v>2734.10865607215</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K30" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L30" t="n">
-        <v>867.6391684321555</v>
+        <v>1129.459753074608</v>
       </c>
       <c r="M30" t="n">
-        <v>1619.394865642251</v>
+        <v>1461.792134282671</v>
       </c>
       <c r="N30" t="n">
-        <v>1932.205362025946</v>
+        <v>1774.602630666366</v>
       </c>
       <c r="O30" t="n">
-        <v>2196.146058527388</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P30" t="n">
         <v>2546.324080243319</v>
@@ -6622,13 +6622,13 @@
         <v>112.9886256529933</v>
       </c>
       <c r="K31" t="n">
-        <v>267.0813524192175</v>
+        <v>267.0813524192176</v>
       </c>
       <c r="L31" t="n">
-        <v>516.9148004639831</v>
+        <v>516.9148004639832</v>
       </c>
       <c r="M31" t="n">
-        <v>790.1587150323423</v>
+        <v>790.1587150323426</v>
       </c>
       <c r="N31" t="n">
         <v>1062.584871907533</v>
@@ -6643,28 +6643,28 @@
         <v>1523.75344131139</v>
       </c>
       <c r="R31" t="n">
-        <v>1523.75344131139</v>
+        <v>1517.32920582115</v>
       </c>
       <c r="S31" t="n">
-        <v>1333.358518827819</v>
+        <v>1326.934283337579</v>
       </c>
       <c r="T31" t="n">
-        <v>1119.835934851222</v>
+        <v>1113.411699360982</v>
       </c>
       <c r="U31" t="n">
-        <v>1119.835934851222</v>
+        <v>834.7824592208234</v>
       </c>
       <c r="V31" t="n">
-        <v>875.6539043529851</v>
+        <v>590.6004287225866</v>
       </c>
       <c r="W31" t="n">
-        <v>693.1218449517457</v>
+        <v>311.6857163932758</v>
       </c>
       <c r="X31" t="n">
-        <v>475.6347517613783</v>
+        <v>94.19862320290831</v>
       </c>
       <c r="Y31" t="n">
-        <v>265.3446303254981</v>
+        <v>94.19862320290831</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2345.348322904832</v>
+        <v>2273.991612054479</v>
       </c>
       <c r="C32" t="n">
-        <v>1991.209249878464</v>
+        <v>1905.029095114067</v>
       </c>
       <c r="D32" t="n">
-        <v>1704.300262122066</v>
+        <v>1546.763396507316</v>
       </c>
       <c r="E32" t="n">
-        <v>1318.512009523821</v>
+        <v>1160.975143909072</v>
       </c>
       <c r="F32" t="n">
-        <v>907.5261047342137</v>
+        <v>749.9892391194646</v>
       </c>
       <c r="G32" t="n">
-        <v>491.2753032354263</v>
+        <v>348.5618815347217</v>
       </c>
       <c r="H32" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943147</v>
       </c>
       <c r="I32" t="n">
         <v>94.19862320290831</v>
@@ -6725,25 +6725,25 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S32" t="n">
-        <v>4644.145521276389</v>
+        <v>4572.788810426036</v>
       </c>
       <c r="T32" t="n">
-        <v>4433.009540653196</v>
+        <v>4361.652829802843</v>
       </c>
       <c r="U32" t="n">
-        <v>4179.38479581953</v>
+        <v>4108.028084969177</v>
       </c>
       <c r="V32" t="n">
-        <v>3848.321908475959</v>
+        <v>3776.965197625606</v>
       </c>
       <c r="W32" t="n">
-        <v>3495.553253205845</v>
+        <v>3424.196542355492</v>
       </c>
       <c r="X32" t="n">
-        <v>3122.087494944765</v>
+        <v>3050.730784094412</v>
       </c>
       <c r="Y32" t="n">
-        <v>2731.948162968954</v>
+        <v>2660.591452118601</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6780,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K33" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L33" t="n">
-        <v>867.6391684321555</v>
+        <v>762.3278112241837</v>
       </c>
       <c r="M33" t="n">
-        <v>1619.394865642251</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N33" t="n">
-        <v>1932.205362025946</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O33" t="n">
-        <v>2196.146058527388</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P33" t="n">
         <v>2546.324080243319</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>640.926704476203</v>
+        <v>640.9267044762031</v>
       </c>
       <c r="C34" t="n">
-        <v>543.3472323986483</v>
+        <v>543.3472323986484</v>
       </c>
       <c r="D34" t="n">
-        <v>464.5873038366649</v>
+        <v>464.587303836665</v>
       </c>
       <c r="E34" t="n">
-        <v>388.0309211046241</v>
+        <v>388.0309211046242</v>
       </c>
       <c r="F34" t="n">
         <v>312.497684457066</v>
       </c>
       <c r="G34" t="n">
-        <v>215.6229908355102</v>
+        <v>215.6229908355095</v>
       </c>
       <c r="H34" t="n">
-        <v>136.0630662309764</v>
+        <v>136.0630662309757</v>
       </c>
       <c r="I34" t="n">
-        <v>94.19862320290831</v>
+        <v>94.19862320290832</v>
       </c>
       <c r="J34" t="n">
-        <v>172.6318791581558</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K34" t="n">
-        <v>386.3678594295425</v>
+        <v>386.3678594295429</v>
       </c>
       <c r="L34" t="n">
-        <v>695.8445609794707</v>
+        <v>695.844560979471</v>
       </c>
       <c r="M34" t="n">
         <v>1028.731729052993</v>
@@ -6871,37 +6871,37 @@
         <v>1360.801139433346</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P34" t="n">
         <v>1896.732029354154</v>
       </c>
       <c r="Q34" t="n">
-        <v>2000.899469352691</v>
+        <v>2000.89946935269</v>
       </c>
       <c r="R34" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511297</v>
       </c>
       <c r="S34" t="n">
-        <v>1829.118721170427</v>
+        <v>1829.118721170428</v>
       </c>
       <c r="T34" t="n">
         <v>1676.450390336533</v>
       </c>
       <c r="U34" t="n">
-        <v>1458.675403339076</v>
+        <v>1458.675403339077</v>
       </c>
       <c r="V34" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W34" t="n">
-        <v>1057.287166796933</v>
+        <v>1057.287166796934</v>
       </c>
       <c r="X34" t="n">
-        <v>900.6543267492682</v>
+        <v>900.6543267492684</v>
       </c>
       <c r="Y34" t="n">
-        <v>751.2184584560904</v>
+        <v>751.2184584560905</v>
       </c>
     </row>
     <row r="35">
@@ -6968,13 +6968,13 @@
         <v>4361.652829802843</v>
       </c>
       <c r="U35" t="n">
-        <v>4108.028084969177</v>
+        <v>4122.851528883221</v>
       </c>
       <c r="V35" t="n">
-        <v>3776.965197625606</v>
+        <v>3791.788641539651</v>
       </c>
       <c r="W35" t="n">
-        <v>3424.196542355492</v>
+        <v>3439.019986269537</v>
       </c>
       <c r="X35" t="n">
         <v>3065.554228008457</v>
@@ -7017,19 +7017,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K36" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L36" t="n">
-        <v>867.6391684321555</v>
+        <v>762.3278112241837</v>
       </c>
       <c r="M36" t="n">
-        <v>1619.394865642251</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N36" t="n">
-        <v>1932.205362025946</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O36" t="n">
-        <v>2196.146058527388</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P36" t="n">
         <v>2546.324080243319</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>640.9267044762034</v>
+        <v>640.9267044762033</v>
       </c>
       <c r="C37" t="n">
-        <v>543.3472323986489</v>
+        <v>543.3472323986488</v>
       </c>
       <c r="D37" t="n">
-        <v>464.5873038366655</v>
+        <v>464.5873038366653</v>
       </c>
       <c r="E37" t="n">
-        <v>388.0309211046247</v>
+        <v>388.0309211046246</v>
       </c>
       <c r="F37" t="n">
-        <v>312.4976844570667</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G37" t="n">
         <v>215.6229908355101</v>
@@ -7093,13 +7093,13 @@
         <v>94.19862320290831</v>
       </c>
       <c r="J37" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581559</v>
       </c>
       <c r="K37" t="n">
         <v>386.3678594295428</v>
       </c>
       <c r="L37" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794708</v>
       </c>
       <c r="M37" t="n">
         <v>1028.731729052993</v>
@@ -7138,7 +7138,7 @@
         <v>900.6543267492686</v>
       </c>
       <c r="Y37" t="n">
-        <v>751.2184584560908</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2273.991612054479</v>
+        <v>2345.348322904832</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.029095114067</v>
+        <v>1976.38580596442</v>
       </c>
       <c r="D38" t="n">
-        <v>1546.763396507316</v>
+        <v>1689.476818208022</v>
       </c>
       <c r="E38" t="n">
-        <v>1160.975143909072</v>
+        <v>1303.688565609777</v>
       </c>
       <c r="F38" t="n">
-        <v>764.8126830335091</v>
+        <v>892.70266082017</v>
       </c>
       <c r="G38" t="n">
-        <v>348.5618815347216</v>
+        <v>491.2753032354263</v>
       </c>
       <c r="H38" t="n">
-        <v>110.2672012943146</v>
+        <v>181.623912144667</v>
       </c>
       <c r="I38" t="n">
         <v>94.19862320290831</v>
@@ -7202,22 +7202,22 @@
         <v>4572.788810426036</v>
       </c>
       <c r="T38" t="n">
-        <v>4361.652829802843</v>
+        <v>4433.009540653196</v>
       </c>
       <c r="U38" t="n">
-        <v>4108.028084969177</v>
+        <v>4179.38479581953</v>
       </c>
       <c r="V38" t="n">
-        <v>3776.965197625606</v>
+        <v>3848.321908475959</v>
       </c>
       <c r="W38" t="n">
-        <v>3424.196542355492</v>
+        <v>3495.553253205845</v>
       </c>
       <c r="X38" t="n">
-        <v>3050.730784094412</v>
+        <v>3122.087494944765</v>
       </c>
       <c r="Y38" t="n">
-        <v>2660.591452118601</v>
+        <v>2731.948162968954</v>
       </c>
     </row>
     <row r="39">
@@ -7254,19 +7254,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K39" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L39" t="n">
-        <v>867.6391684321555</v>
+        <v>762.3278112241837</v>
       </c>
       <c r="M39" t="n">
-        <v>1619.394865642251</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N39" t="n">
-        <v>1932.205362025946</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O39" t="n">
-        <v>2196.146058527388</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P39" t="n">
         <v>2546.324080243319</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>640.9267044762031</v>
+        <v>640.9267044762029</v>
       </c>
       <c r="C40" t="n">
-        <v>543.3472323986485</v>
+        <v>543.3472323986483</v>
       </c>
       <c r="D40" t="n">
-        <v>464.5873038366651</v>
+        <v>464.5873038366649</v>
       </c>
       <c r="E40" t="n">
-        <v>388.0309211046243</v>
+        <v>388.0309211046241</v>
       </c>
       <c r="F40" t="n">
-        <v>312.4976844570663</v>
+        <v>312.497684457066</v>
       </c>
       <c r="G40" t="n">
-        <v>215.6229908355102</v>
+        <v>215.6229908355097</v>
       </c>
       <c r="H40" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309764</v>
       </c>
       <c r="I40" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J40" t="n">
-        <v>172.631879158156</v>
+        <v>172.6318791581558</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295421</v>
       </c>
       <c r="L40" t="n">
-        <v>695.8445609794708</v>
+        <v>695.8445609794703</v>
       </c>
       <c r="M40" t="n">
         <v>1028.731729052992</v>
@@ -7345,16 +7345,16 @@
         <v>1360.801139433345</v>
       </c>
       <c r="O40" t="n">
-        <v>1656.843530303034</v>
+        <v>1656.843530303033</v>
       </c>
       <c r="P40" t="n">
-        <v>1896.732029354155</v>
+        <v>1896.732029354154</v>
       </c>
       <c r="Q40" t="n">
         <v>2000.899469352691</v>
       </c>
       <c r="R40" t="n">
-        <v>1958.659390511296</v>
+        <v>1958.659390511295</v>
       </c>
       <c r="S40" t="n">
         <v>1829.118721170427</v>
@@ -7372,10 +7372,10 @@
         <v>1057.287166796933</v>
       </c>
       <c r="X40" t="n">
-        <v>900.6543267492684</v>
+        <v>900.6543267492682</v>
       </c>
       <c r="Y40" t="n">
-        <v>751.2184584560905</v>
+        <v>751.2184584560903</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2416.705033755185</v>
+        <v>2273.991612054479</v>
       </c>
       <c r="C41" t="n">
-        <v>2047.742516814773</v>
+        <v>1905.029095114067</v>
       </c>
       <c r="D41" t="n">
-        <v>1704.300262122066</v>
+        <v>1546.763396507316</v>
       </c>
       <c r="E41" t="n">
-        <v>1318.512009523821</v>
+        <v>1160.975143909072</v>
       </c>
       <c r="F41" t="n">
-        <v>907.5261047342137</v>
+        <v>749.9892391194646</v>
       </c>
       <c r="G41" t="n">
-        <v>491.2753032354263</v>
+        <v>348.5618815347216</v>
       </c>
       <c r="H41" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943146</v>
       </c>
       <c r="I41" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J41" t="n">
-        <v>352.4625266553649</v>
+        <v>352.4625266553641</v>
       </c>
       <c r="K41" t="n">
-        <v>860.27797416778</v>
+        <v>860.2779741677793</v>
       </c>
       <c r="L41" t="n">
-        <v>1542.544568462678</v>
+        <v>1542.544568462677</v>
       </c>
       <c r="M41" t="n">
         <v>2318.304158787662</v>
@@ -7427,7 +7427,7 @@
         <v>3777.360983129468</v>
       </c>
       <c r="P41" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q41" t="n">
         <v>4658.401460222604</v>
@@ -7436,25 +7436,25 @@
         <v>4709.931160145416</v>
       </c>
       <c r="S41" t="n">
-        <v>4644.145521276389</v>
+        <v>4572.788810426036</v>
       </c>
       <c r="T41" t="n">
-        <v>4504.366251503549</v>
+        <v>4361.652829802843</v>
       </c>
       <c r="U41" t="n">
-        <v>4250.741506669883</v>
+        <v>4108.028084969177</v>
       </c>
       <c r="V41" t="n">
-        <v>3919.678619326312</v>
+        <v>3776.965197625606</v>
       </c>
       <c r="W41" t="n">
-        <v>3566.909964056198</v>
+        <v>3424.196542355492</v>
       </c>
       <c r="X41" t="n">
-        <v>3193.444205795118</v>
+        <v>3050.730784094412</v>
       </c>
       <c r="Y41" t="n">
-        <v>2803.304873819307</v>
+        <v>2660.591452118601</v>
       </c>
     </row>
     <row r="42">
@@ -7491,19 +7491,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K42" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L42" t="n">
-        <v>867.6391684321555</v>
+        <v>781.1607541011133</v>
       </c>
       <c r="M42" t="n">
-        <v>1619.394865642251</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N42" t="n">
-        <v>1932.205362025946</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O42" t="n">
-        <v>2353.821468121346</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P42" t="n">
         <v>2546.324080243319</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>640.9267044762036</v>
+        <v>640.9267044762033</v>
       </c>
       <c r="C43" t="n">
-        <v>543.347232398649</v>
+        <v>543.3472323986488</v>
       </c>
       <c r="D43" t="n">
-        <v>464.5873038366656</v>
+        <v>464.5873038366653</v>
       </c>
       <c r="E43" t="n">
-        <v>388.0309211046248</v>
+        <v>388.0309211046246</v>
       </c>
       <c r="F43" t="n">
-        <v>312.4976844570668</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G43" t="n">
-        <v>215.6229908355101</v>
+        <v>215.6229908355102</v>
       </c>
       <c r="H43" t="n">
-        <v>136.0630662309763</v>
+        <v>136.0630662309764</v>
       </c>
       <c r="I43" t="n">
         <v>94.19862320290831</v>
       </c>
       <c r="J43" t="n">
-        <v>172.6318791581559</v>
+        <v>172.6318791581561</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3678594295428</v>
+        <v>386.3678594295429</v>
       </c>
       <c r="L43" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794711</v>
       </c>
       <c r="M43" t="n">
         <v>1028.731729052993</v>
@@ -7594,25 +7594,25 @@
         <v>1958.659390511296</v>
       </c>
       <c r="S43" t="n">
-        <v>1829.118721170428</v>
+        <v>1829.118721170427</v>
       </c>
       <c r="T43" t="n">
         <v>1676.450390336533</v>
       </c>
       <c r="U43" t="n">
-        <v>1458.675403339077</v>
+        <v>1458.675403339076</v>
       </c>
       <c r="V43" t="n">
         <v>1275.347625983542</v>
       </c>
       <c r="W43" t="n">
-        <v>1057.287166796934</v>
+        <v>1057.287166796933</v>
       </c>
       <c r="X43" t="n">
-        <v>900.6543267492688</v>
+        <v>900.6543267492685</v>
       </c>
       <c r="Y43" t="n">
-        <v>751.218458456091</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2345.348322904831</v>
+        <v>2345.348322904832</v>
       </c>
       <c r="C44" t="n">
-        <v>1991.209249878464</v>
+        <v>1976.38580596442</v>
       </c>
       <c r="D44" t="n">
-        <v>1632.943551271713</v>
+        <v>1618.120107357669</v>
       </c>
       <c r="E44" t="n">
-        <v>1247.155298673469</v>
+        <v>1232.331854759425</v>
       </c>
       <c r="F44" t="n">
-        <v>836.1693938838614</v>
+        <v>821.3459499698176</v>
       </c>
       <c r="G44" t="n">
-        <v>491.2753032354263</v>
+        <v>419.918592385074</v>
       </c>
       <c r="H44" t="n">
-        <v>181.623912144667</v>
+        <v>110.2672012943146</v>
       </c>
       <c r="I44" t="n">
         <v>94.19862320290831</v>
@@ -7655,43 +7655,43 @@
         <v>1542.544568462677</v>
       </c>
       <c r="M44" t="n">
-        <v>2318.304158787663</v>
+        <v>2318.304158787662</v>
       </c>
       <c r="N44" t="n">
-        <v>3091.984352769975</v>
+        <v>3091.984352769974</v>
       </c>
       <c r="O44" t="n">
-        <v>3777.360983129468</v>
+        <v>3777.360983129467</v>
       </c>
       <c r="P44" t="n">
-        <v>4324.639697485003</v>
+        <v>4324.639697485002</v>
       </c>
       <c r="Q44" t="n">
-        <v>4658.401460222604</v>
+        <v>4658.401460222603</v>
       </c>
       <c r="R44" t="n">
         <v>4709.931160145416</v>
       </c>
       <c r="S44" t="n">
-        <v>4572.788810426036</v>
+        <v>4644.145521276389</v>
       </c>
       <c r="T44" t="n">
-        <v>4361.652829802843</v>
+        <v>4433.009540653196</v>
       </c>
       <c r="U44" t="n">
-        <v>4179.384795819529</v>
+        <v>4179.38479581953</v>
       </c>
       <c r="V44" t="n">
-        <v>3848.321908475958</v>
+        <v>3848.321908475959</v>
       </c>
       <c r="W44" t="n">
-        <v>3495.553253205844</v>
+        <v>3495.553253205845</v>
       </c>
       <c r="X44" t="n">
-        <v>3122.087494944764</v>
+        <v>3122.087494944765</v>
       </c>
       <c r="Y44" t="n">
-        <v>2731.948162968953</v>
+        <v>2731.948162968954</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>129.4953301443201</v>
       </c>
       <c r="K45" t="n">
-        <v>267.9778490088835</v>
+        <v>529.7984336513363</v>
       </c>
       <c r="L45" t="n">
-        <v>867.6391684321555</v>
+        <v>781.1607541011133</v>
       </c>
       <c r="M45" t="n">
-        <v>1619.394865642251</v>
+        <v>1071.868438198709</v>
       </c>
       <c r="N45" t="n">
-        <v>1932.205362025946</v>
+        <v>1384.678934582404</v>
       </c>
       <c r="O45" t="n">
-        <v>2353.821468121346</v>
+        <v>2038.543327167808</v>
       </c>
       <c r="P45" t="n">
         <v>2546.324080243319</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.9267044762032</v>
+        <v>640.9267044762033</v>
       </c>
       <c r="C46" t="n">
-        <v>543.3472323986487</v>
+        <v>543.3472323986488</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5873038366652</v>
+        <v>464.5873038366653</v>
       </c>
       <c r="E46" t="n">
-        <v>388.0309211046244</v>
+        <v>388.0309211046246</v>
       </c>
       <c r="F46" t="n">
-        <v>312.4976844570664</v>
+        <v>312.4976844570665</v>
       </c>
       <c r="G46" t="n">
         <v>215.6229908355101</v>
@@ -7810,46 +7810,46 @@
         <v>386.3678594295428</v>
       </c>
       <c r="L46" t="n">
-        <v>695.844560979471</v>
+        <v>695.8445609794705</v>
       </c>
       <c r="M46" t="n">
         <v>1028.731729052993</v>
       </c>
       <c r="N46" t="n">
-        <v>1360.801139433345</v>
+        <v>1360.801139433346</v>
       </c>
       <c r="O46" t="n">
-        <v>1656.843530303033</v>
+        <v>1656.843530303034</v>
       </c>
       <c r="P46" t="n">
-        <v>1896.732029354154</v>
+        <v>1896.732029354155</v>
       </c>
       <c r="Q46" t="n">
-        <v>2000.89946935269</v>
+        <v>2000.899469352691</v>
       </c>
       <c r="R46" t="n">
-        <v>1958.659390511295</v>
+        <v>1958.659390511296</v>
       </c>
       <c r="S46" t="n">
         <v>1829.118721170427</v>
       </c>
       <c r="T46" t="n">
-        <v>1676.450390336532</v>
+        <v>1676.450390336533</v>
       </c>
       <c r="U46" t="n">
         <v>1458.675403339076</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.347625983541</v>
+        <v>1275.347625983542</v>
       </c>
       <c r="W46" t="n">
         <v>1057.287166796933</v>
       </c>
       <c r="X46" t="n">
-        <v>900.654326749268</v>
+        <v>900.6543267492685</v>
       </c>
       <c r="Y46" t="n">
-        <v>751.2184584560906</v>
+        <v>751.2184584560907</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K3" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>381.7094952808121</v>
+        <v>180.4489082265202</v>
       </c>
       <c r="O3" t="n">
-        <v>205.762078428327</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>124.5219861368072</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>93.94706119472991</v>
       </c>
       <c r="L6" t="n">
-        <v>80.85962081862657</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>455.5401165541726</v>
+        <v>455.5401165541722</v>
       </c>
       <c r="N6" t="n">
-        <v>442.9248731405344</v>
+        <v>442.9248731405339</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>94.20600814298237</v>
       </c>
       <c r="Q6" t="n">
-        <v>105.2830759058783</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,25 +8772,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>306.5103856090096</v>
+        <v>50.76606145885364</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>38.89612811715141</v>
+        <v>38.89612811715145</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9018,13 +9018,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>42.04514859643155</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.04514859643136</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>38.89612811715142</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928331</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298315</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.76606145885287</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>50.76606145885316</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>38.89612811715142</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9726,13 +9726,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>42.04514859643149</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>145.6307799053935</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -9954,22 +9954,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>50.76606145885287</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>42.04514859643155</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10191,13 +10191,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>42.04514859643155</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>159.2680904989471</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>19.02317462316125</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>159.2680904989471</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10665,22 +10665,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>19.02317462316125</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>159.2680904989471</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10902,22 +10902,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>19.02317462316125</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>159.2680904989471</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11139,22 +11139,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>19.02317462316122</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>159.2680904989475</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.513533492834</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298315</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,22 +11376,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>19.02317462316122</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>159.2680904989475</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>20.02212248470255</v>
       </c>
       <c r="C13" t="n">
-        <v>156.8493879680544</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D13" t="n">
-        <v>138.218039887639</v>
+        <v>138.2180398876389</v>
       </c>
       <c r="E13" t="n">
-        <v>136.0365295159958</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.0100359697639</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>102.0633886642566</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S13" t="n">
         <v>188.4909732587351</v>
       </c>
       <c r="T13" t="n">
-        <v>211.3873581368307</v>
+        <v>211.3873581368306</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V13" t="n">
-        <v>156.0630039184958</v>
+        <v>241.7402101932545</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>156.8493879680543</v>
       </c>
       <c r="D16" t="n">
-        <v>138.218039887639</v>
+        <v>52.58235400983223</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H16" t="n">
-        <v>139.0100359697639</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I16" t="n">
-        <v>101.6915092090628</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>102.0633886642567</v>
+        <v>102.0633886642565</v>
       </c>
       <c r="S16" t="n">
-        <v>188.4909732587352</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>211.3873581368308</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.8429477387574</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.7402101932547</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>37.86147448299539</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>92.67131152317467</v>
+        <v>169.4345470513638</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>100.2164614616201</v>
       </c>
       <c r="E19" t="n">
-        <v>136.0365295159958</v>
+        <v>136.0365295159957</v>
       </c>
       <c r="F19" t="n">
         <v>135.0236148923578</v>
       </c>
       <c r="G19" t="n">
-        <v>156.1516572966162</v>
+        <v>156.1516572966161</v>
       </c>
       <c r="H19" t="n">
-        <v>139.0100359697639</v>
+        <v>139.0100359697638</v>
       </c>
       <c r="I19" t="n">
-        <v>101.6915092090628</v>
+        <v>101.6915092090627</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S19" t="n">
         <v>188.4909732587351</v>
       </c>
       <c r="T19" t="n">
-        <v>211.3873581368307</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>208.1872202215213</v>
       </c>
     </row>
     <row r="20">
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>156.8493879680544</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>138.218039887639</v>
       </c>
       <c r="E22" t="n">
         <v>136.0365295159958</v>
@@ -24175,16 +24175,16 @@
         <v>102.0633886642566</v>
       </c>
       <c r="S22" t="n">
-        <v>188.4909732587351</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>201.9952809957489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>201.8272270861837</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.8493879680544</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.0365295159957</v>
+        <v>136.0365295159958</v>
       </c>
       <c r="F25" t="n">
-        <v>135.0236148923578</v>
+        <v>31.41883221743083</v>
       </c>
       <c r="G25" t="n">
-        <v>124.2052883417804</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>101.6915092090628</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>211.3873581368307</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>275.8429477387573</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>276.1255652060176</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>215.3122222584637</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.1872202215214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>138.218039887639</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>136.0365295159958</v>
       </c>
       <c r="F28" t="n">
-        <v>135.0236148923579</v>
+        <v>135.0236148923578</v>
       </c>
       <c r="G28" t="n">
         <v>156.1516572966162</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>102.0633886642567</v>
+        <v>102.0633886642566</v>
       </c>
       <c r="S28" t="n">
-        <v>74.98359377551729</v>
+        <v>188.4909732587351</v>
       </c>
       <c r="T28" t="n">
-        <v>211.3873581368308</v>
+        <v>211.3873581368307</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>24.71066040442093</v>
       </c>
       <c r="V28" t="n">
-        <v>241.7402101932547</v>
+        <v>241.7402101932546</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.4345470513639</v>
       </c>
       <c r="C31" t="n">
         <v>156.8493879680544</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>102.0633886642566</v>
+        <v>95.7033955289192</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.8429477387573</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>95.4188263987906</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>208.1872202215214</v>
       </c>
     </row>
     <row r="32">
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.575699570821598e-12</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26320,28 +26320,28 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>196642.606840823</v>
+      </c>
+      <c r="F2" t="n">
+        <v>196642.606840823</v>
+      </c>
+      <c r="G2" t="n">
+        <v>196642.606840823</v>
+      </c>
+      <c r="H2" t="n">
+        <v>196642.606840823</v>
+      </c>
+      <c r="I2" t="n">
+        <v>196642.606840823</v>
+      </c>
+      <c r="J2" t="n">
         <v>196642.6068408231</v>
-      </c>
-      <c r="F2" t="n">
-        <v>196642.6068408231</v>
-      </c>
-      <c r="G2" t="n">
-        <v>196642.6068408229</v>
-      </c>
-      <c r="H2" t="n">
-        <v>196642.6068408229</v>
-      </c>
-      <c r="I2" t="n">
-        <v>196642.6068408229</v>
-      </c>
-      <c r="J2" t="n">
-        <v>196642.6068408229</v>
       </c>
       <c r="K2" t="n">
         <v>196642.6068408231</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="M2" t="n">
         <v>205260.4424660711</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749498</v>
+        <v>110394.4548749499</v>
       </c>
       <c r="C3" t="n">
-        <v>132580.7637698191</v>
+        <v>132580.7637698182</v>
       </c>
       <c r="D3" t="n">
-        <v>305980.1692436705</v>
+        <v>305980.1692436714</v>
       </c>
       <c r="E3" t="n">
-        <v>497476.0416545637</v>
+        <v>497476.0416545635</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>4.689582056016661e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77193.64523570857</v>
+        <v>77193.6452357087</v>
       </c>
       <c r="K3" t="n">
-        <v>30636.89311622881</v>
+        <v>30636.8931162286</v>
       </c>
       <c r="L3" t="n">
-        <v>122100.6567693019</v>
+        <v>122100.656769302</v>
       </c>
       <c r="M3" t="n">
-        <v>125398.3356886933</v>
+        <v>125398.3356886932</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>8317.946504458676</v>
+        <v>8317.946504458781</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>279327.2236236407</v>
       </c>
       <c r="C4" t="n">
-        <v>241095.0658954905</v>
+        <v>241095.0658954908</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>18521.8202347575</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18521.8202347575</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18521.82023475746</v>
+      </c>
+      <c r="H4" t="n">
         <v>18521.8202347574</v>
-      </c>
-      <c r="F4" t="n">
-        <v>18521.82023475734</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18521.8202347574</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18521.82023475744</v>
       </c>
       <c r="I4" t="n">
         <v>18521.8202347574</v>
       </c>
       <c r="J4" t="n">
-        <v>18521.82023475736</v>
+        <v>18521.8202347574</v>
       </c>
       <c r="K4" t="n">
-        <v>18521.82023475741</v>
+        <v>18521.8202347574</v>
       </c>
       <c r="L4" t="n">
-        <v>38345.66140262125</v>
+        <v>38345.66140262126</v>
       </c>
       <c r="M4" t="n">
-        <v>38345.6614026213</v>
+        <v>38345.66140262128</v>
       </c>
       <c r="N4" t="n">
+        <v>38345.66140262123</v>
+      </c>
+      <c r="O4" t="n">
         <v>38345.66140262128</v>
       </c>
-      <c r="O4" t="n">
-        <v>38345.66140262123</v>
-      </c>
       <c r="P4" t="n">
-        <v>38345.66140262131</v>
+        <v>38345.66140262124</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26470,22 @@
         <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
-        <v>59625.30989075366</v>
+        <v>59625.3098907536</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>89896.18181098948</v>
+        <v>89896.18181098947</v>
       </c>
       <c r="F5" t="n">
         <v>89896.18181098948</v>
       </c>
       <c r="G5" t="n">
-        <v>89896.18181098947</v>
+        <v>89896.1818109895</v>
       </c>
       <c r="H5" t="n">
-        <v>89896.18181098947</v>
+        <v>89896.18181098948</v>
       </c>
       <c r="I5" t="n">
         <v>89896.18181098948</v>
@@ -26522,46 +26522,46 @@
         <v>-234595.6434393532</v>
       </c>
       <c r="C6" t="n">
-        <v>-228040.6970899925</v>
+        <v>-228040.6970899918</v>
       </c>
       <c r="D6" t="n">
-        <v>-331495.8535569301</v>
+        <v>-331495.8535569309</v>
       </c>
       <c r="E6" t="n">
-        <v>-409251.4368594876</v>
+        <v>-409337.6152157399</v>
       </c>
       <c r="F6" t="n">
-        <v>88224.6047950763</v>
+        <v>88138.42643882339</v>
       </c>
       <c r="G6" t="n">
-        <v>88224.60479507597</v>
+        <v>88138.4264388236</v>
       </c>
       <c r="H6" t="n">
-        <v>88224.604795076</v>
+        <v>88138.42643882365</v>
       </c>
       <c r="I6" t="n">
-        <v>88224.60479507598</v>
+        <v>88138.42643882362</v>
       </c>
       <c r="J6" t="n">
-        <v>11030.9595593675</v>
+        <v>10944.78120311503</v>
       </c>
       <c r="K6" t="n">
-        <v>57587.71167884741</v>
+        <v>57501.5333225951</v>
       </c>
       <c r="L6" t="n">
-        <v>-50146.85416222092</v>
+        <v>-50146.85416222113</v>
       </c>
       <c r="M6" t="n">
-        <v>-53444.53308161234</v>
+        <v>-53444.53308161223</v>
       </c>
       <c r="N6" t="n">
         <v>71953.80260708094</v>
       </c>
       <c r="O6" t="n">
-        <v>63635.85610262227</v>
+        <v>63635.85610262216</v>
       </c>
       <c r="P6" t="n">
-        <v>71953.80260708091</v>
+        <v>71953.80260708094</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F2" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G2" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H2" t="n">
         <v>10.39743313057339</v>
       </c>
       <c r="I2" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K2" t="n">
         <v>10.3974331305734</v>
       </c>
       <c r="L2" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="M2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N2" t="n">
         <v>70.64314374184879</v>
       </c>
       <c r="O2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="P2" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>126.3765120634682</v>
+        <v>126.3765120634675</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>799.5929527947249</v>
+        <v>799.5929527947245</v>
       </c>
       <c r="F3" t="n">
         <v>799.5929527947247</v>
@@ -26790,7 +26790,7 @@
         <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>382.2812817067445</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057332</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>60.24571061127543</v>
+        <v>60.2457106112753</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057335</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>103.3631293766786</v>
+        <v>103.3631293766778</v>
       </c>
       <c r="D3" t="n">
-        <v>251.3671521536185</v>
+        <v>251.3671521536191</v>
       </c>
       <c r="E3" t="n">
-        <v>421.8492885776382</v>
+        <v>421.8492885776379</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,13 +27012,13 @@
         <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>119.0392477550776</v>
+        <v>119.0392477550768</v>
       </c>
       <c r="D4" t="n">
-        <v>292.0059910478111</v>
+        <v>292.005991047812</v>
       </c>
       <c r="E4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>263.2420339516668</v>
       </c>
       <c r="K4" t="n">
-        <v>119.0392477550776</v>
+        <v>119.0392477550768</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478111</v>
+        <v>292.005991047812</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.861977570020827e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>10.39743313057332</v>
+        <v>10.39743313057348</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>119.0392477550776</v>
+        <v>119.0392477550768</v>
       </c>
       <c r="L4" t="n">
-        <v>292.0059910478111</v>
+        <v>292.005991047812</v>
       </c>
       <c r="M4" t="n">
-        <v>503.1955172817983</v>
+        <v>503.1955172817981</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>397.7033225239829</v>
+        <v>143.6340117900446</v>
       </c>
       <c r="G2" t="n">
         <v>151.9681874521645</v>
@@ -27400,7 +27400,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852073</v>
+        <v>4.097100052852072</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>206.9118586999128</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.99893476574613</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>257.8807842511283</v>
       </c>
     </row>
     <row r="3">
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>90.46139946374625</v>
       </c>
       <c r="G3" t="n">
         <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828962</v>
@@ -27506,25 +27506,25 @@
         <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>74.85158269926018</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27561,7 +27561,7 @@
         <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871611</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
-        <v>164.2078249479335</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>80.90630460263813</v>
       </c>
       <c r="T4" t="n">
         <v>227.7682732010226</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4525599567360814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>273.4581934674105</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>32.51340952873842</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>334.2717731542797</v>
       </c>
       <c r="I5" t="n">
-        <v>190.889435374117</v>
+        <v>190.8894353741171</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>117.9555558269514</v>
+        <v>8.276543430223356</v>
       </c>
       <c r="S5" t="n">
-        <v>197.4429649886723</v>
+        <v>197.4429649886724</v>
       </c>
       <c r="T5" t="n">
         <v>220.8718769749541</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159.4306247250789</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>116.7341829118116</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>109.6101510330648</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>80.03761757124319</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>83.28060863594081</v>
       </c>
       <c r="S6" t="n">
-        <v>166.6340717775285</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.0690681798563</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.7630872875246</v>
@@ -27795,7 +27795,7 @@
         <v>148.5971388304394</v>
       </c>
       <c r="J7" t="n">
-        <v>77.24721070163028</v>
+        <v>77.24721070163038</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.07918993011069</v>
+        <v>67.0791899301108</v>
       </c>
       <c r="R7" t="n">
-        <v>16.8406480861758</v>
+        <v>167.0465351695316</v>
       </c>
       <c r="S7" t="n">
         <v>220.0450607644203</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.4807165823999</v>
       </c>
     </row>
     <row r="8">
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>306.7451116554085</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>104.5978090468916</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,19 +28011,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>136.7057146380968</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>132.471820896645</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="L13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="M13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="N13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="O13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Q13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="R13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="S13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y13" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="C16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="D16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="E16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="F16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="G16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="H16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="I16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="J16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="K16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="L16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="M16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="N16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="O16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="P16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Q16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="R16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="S16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="T16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="U16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="V16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="W16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="X16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.39743313057333</v>
+        <v>10.39743313057349</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="I17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="T17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="U17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="V17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="W17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="X17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Y17" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="C19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="D19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="E19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="F19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="G19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="H19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="I19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="J19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="K19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="L19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="M19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="N19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="O19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="P19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="R19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="S19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="T19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="U19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="V19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="W19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="X19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.39743313057339</v>
+        <v>10.39743313057346</v>
       </c>
     </row>
     <row r="20">
@@ -28852,7 +28852,7 @@
         <v>10.39743313057339</v>
       </c>
       <c r="T20" t="n">
-        <v>10.39743313057417</v>
+        <v>10.39743313057339</v>
       </c>
       <c r="U20" t="n">
         <v>10.39743313057339</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.39743313057306</v>
       </c>
       <c r="W23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X23" t="n">
-        <v>10.39743313057278</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y23" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y25" t="n">
-        <v>10.39743313057342</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I26" t="n">
-        <v>10.39743313057356</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="C28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="D28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="E28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="F28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="G28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="H28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="I28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="J28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="K28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="L28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="M28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="N28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="O28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="P28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Q28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="R28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="S28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="T28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="U28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="V28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="W28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="X28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.39743313057335</v>
+        <v>10.3974331305734</v>
       </c>
     </row>
     <row r="29">
@@ -29749,10 +29749,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>14.67520947490334</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>70.64314374184877</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29761,13 +29761,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>14.67520947490408</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>70.64314374184877</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="C34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="D34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="E34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="F34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="G34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="H34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="I34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="J34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="K34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="L34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="M34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="N34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="O34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="P34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="Q34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="R34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="S34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="T34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="U34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="V34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="W34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="X34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
       <c r="Y34" t="n">
-        <v>70.64314374184877</v>
+        <v>70.64314374184873</v>
       </c>
     </row>
     <row r="35">
@@ -29998,10 +29998,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H35" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>14.67520947490388</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>14.67520947490425</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="C37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="D37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="E37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="F37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="G37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="H37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="I37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="J37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="K37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="L37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="M37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="N37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="O37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="P37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Q37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="R37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="S37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="T37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="U37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="V37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="W37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="X37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
       <c r="Y37" t="n">
-        <v>70.64314374184882</v>
+        <v>70.6431437418488</v>
       </c>
     </row>
     <row r="38">
@@ -30226,55 +30226,55 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>14.67520947490402</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>14.67520947490328</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
         <v>70.64314374184879</v>
-      </c>
-      <c r="I38" t="n">
-        <v>70.64314374184879</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>14.67520947490272</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30472,13 +30472,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>14.67520947490397</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="C43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="D43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="E43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="F43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="G43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="H43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="I43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="J43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="K43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="L43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="M43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="N43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="O43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="P43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="R43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="S43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="T43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="U43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="V43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="W43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="X43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Y43" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
     </row>
     <row r="44">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>14.67520947490425</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30709,13 +30709,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>70.64314374184882</v>
+        <v>14.67520947490328</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,13 +30745,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>70.64314374184882</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="C46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="D46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="E46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="F46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="G46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="H46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="I46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="J46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="K46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="L46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="M46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="N46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="O46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="P46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="R46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="S46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="T46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="U46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="V46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="W46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="X46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
       <c r="Y46" t="n">
-        <v>70.64314374184882</v>
+        <v>70.64314374184879</v>
       </c>
     </row>
   </sheetData>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367678</v>
+        <v>0.09251611130367679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.94748062488878</v>
+        <v>0.9474806248887802</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381035002</v>
+        <v>3.566727381035003</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760444</v>
+        <v>7.852189301760445</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324508</v>
+        <v>11.76839629324509</v>
       </c>
       <c r="L2" t="n">
         <v>14.59973623455499</v>
@@ -31063,25 +31063,25 @@
         <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841738</v>
+        <v>15.58792394841739</v>
       </c>
       <c r="P2" t="n">
         <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544932</v>
+        <v>9.990699214544934</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679592</v>
+        <v>5.811515176679593</v>
       </c>
       <c r="S2" t="n">
         <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318453</v>
+        <v>0.4049892772318454</v>
       </c>
       <c r="U2" t="n">
-        <v>0.00740128890429414</v>
+        <v>0.007401288904294142</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,19 +31121,19 @@
         <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104787</v>
+        <v>0.4780704592104788</v>
       </c>
       <c r="I3" t="n">
         <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246559</v>
+        <v>4.67671015524656</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750314</v>
+        <v>7.993242550750316</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688226</v>
+        <v>10.74790103688227</v>
       </c>
       <c r="M3" t="n">
         <v>12.54229356430034</v>
@@ -31145,19 +31145,19 @@
         <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277523079</v>
+        <v>9.452421277523081</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210613</v>
+        <v>6.318693299210614</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605603</v>
+        <v>3.073372125605604</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523959</v>
+        <v>0.919449770552396</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467891</v>
+        <v>0.1995216857467892</v>
       </c>
       <c r="U3" t="n">
         <v>0.00325661075756457</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994848</v>
+        <v>0.04149954254994849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259058</v>
+        <v>0.3689686601259059</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047542</v>
@@ -31209,22 +31209,22 @@
         <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166741</v>
+        <v>4.821492307166742</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471433</v>
+        <v>6.169850171471434</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988742</v>
+        <v>6.505241928988743</v>
       </c>
       <c r="N4" t="n">
-        <v>6.35056181584803</v>
+        <v>6.350561815848031</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150903</v>
+        <v>5.865771705150904</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131949</v>
+        <v>5.01918103713195</v>
       </c>
       <c r="Q4" t="n">
         <v>3.475020785705232</v>
@@ -31233,13 +31233,13 @@
         <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.723223846075011</v>
+        <v>0.7232238460750111</v>
       </c>
       <c r="T4" t="n">
         <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815374</v>
+        <v>0.002263611411815375</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.508046279652133</v>
+        <v>0.5080462796521301</v>
       </c>
       <c r="H5" t="n">
-        <v>5.203028961487408</v>
+        <v>5.203028961487379</v>
       </c>
       <c r="I5" t="n">
-        <v>19.58645419628888</v>
+        <v>19.58645419628877</v>
       </c>
       <c r="J5" t="n">
-        <v>43.11979292762526</v>
+        <v>43.11979292762502</v>
       </c>
       <c r="K5" t="n">
-        <v>64.62539194530007</v>
+        <v>64.6253919452997</v>
       </c>
       <c r="L5" t="n">
-        <v>80.17351327620403</v>
+        <v>80.17351327620359</v>
       </c>
       <c r="M5" t="n">
-        <v>89.20848130196765</v>
+        <v>89.20848130196717</v>
       </c>
       <c r="N5" t="n">
-        <v>90.65196779402929</v>
+        <v>90.65196779402879</v>
       </c>
       <c r="O5" t="n">
-        <v>85.60008260073839</v>
+        <v>85.60008260073791</v>
       </c>
       <c r="P5" t="n">
-        <v>73.05769007182634</v>
+        <v>73.05769007182593</v>
       </c>
       <c r="Q5" t="n">
-        <v>54.86328268178431</v>
+        <v>54.86328268178401</v>
       </c>
       <c r="R5" t="n">
-        <v>31.91356211419832</v>
+        <v>31.91356211419815</v>
       </c>
       <c r="S5" t="n">
-        <v>11.57710459757299</v>
+        <v>11.57710459757293</v>
       </c>
       <c r="T5" t="n">
-        <v>2.223972589177213</v>
+        <v>2.223972589177201</v>
       </c>
       <c r="U5" t="n">
-        <v>0.04064370237217063</v>
+        <v>0.0406437023721704</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2718287240610447</v>
+        <v>0.2718287240610432</v>
       </c>
       <c r="H6" t="n">
-        <v>2.625293203431669</v>
+        <v>2.625293203431655</v>
       </c>
       <c r="I6" t="n">
-        <v>9.359015280171937</v>
+        <v>9.359015280171885</v>
       </c>
       <c r="J6" t="n">
-        <v>25.68185326753932</v>
+        <v>25.68185326753918</v>
       </c>
       <c r="K6" t="n">
-        <v>43.89437777962932</v>
+        <v>43.89437777962908</v>
       </c>
       <c r="L6" t="n">
-        <v>59.02140782737729</v>
+        <v>59.02140782737696</v>
       </c>
       <c r="M6" t="n">
-        <v>68.87519907459014</v>
+        <v>68.87519907458976</v>
       </c>
       <c r="N6" t="n">
-        <v>70.69812064954338</v>
+        <v>70.698120649543</v>
       </c>
       <c r="O6" t="n">
-        <v>64.67496839534866</v>
+        <v>64.6749683953483</v>
       </c>
       <c r="P6" t="n">
-        <v>51.90736398320073</v>
+        <v>51.90736398320045</v>
       </c>
       <c r="Q6" t="n">
-        <v>34.69869818014319</v>
+        <v>34.698698180143</v>
       </c>
       <c r="R6" t="n">
-        <v>16.87722551670242</v>
+        <v>16.87722551670232</v>
       </c>
       <c r="S6" t="n">
-        <v>5.049099326309315</v>
+        <v>5.049099326309287</v>
       </c>
       <c r="T6" t="n">
-        <v>1.095660514965351</v>
+        <v>1.095660514965345</v>
       </c>
       <c r="U6" t="n">
-        <v>0.01788346868822663</v>
+        <v>0.01788346868822654</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2278920709341229</v>
+        <v>0.2278920709341216</v>
       </c>
       <c r="H7" t="n">
-        <v>2.026167685214294</v>
+        <v>2.026167685214283</v>
       </c>
       <c r="I7" t="n">
-        <v>6.853336096818898</v>
+        <v>6.85333609681886</v>
       </c>
       <c r="J7" t="n">
-        <v>16.11196941504249</v>
+        <v>16.1119694150424</v>
       </c>
       <c r="K7" t="n">
-        <v>26.47691515034627</v>
+        <v>26.47691515034613</v>
       </c>
       <c r="L7" t="n">
-        <v>33.88133570960588</v>
+        <v>33.88133570960569</v>
       </c>
       <c r="M7" t="n">
-        <v>35.72311799197346</v>
+        <v>35.72311799197326</v>
       </c>
       <c r="N7" t="n">
-        <v>34.87370209121903</v>
+        <v>34.87370209121884</v>
       </c>
       <c r="O7" t="n">
-        <v>32.21150835348858</v>
+        <v>32.21150835348841</v>
       </c>
       <c r="P7" t="n">
-        <v>27.56251010643246</v>
+        <v>27.5625101064323</v>
       </c>
       <c r="Q7" t="n">
-        <v>19.08285332158369</v>
+        <v>19.08285332158359</v>
       </c>
       <c r="R7" t="n">
-        <v>10.24685620763792</v>
+        <v>10.24685620763787</v>
       </c>
       <c r="S7" t="n">
-        <v>3.971537272551941</v>
+        <v>3.971537272551918</v>
       </c>
       <c r="T7" t="n">
-        <v>0.9737206667185249</v>
+        <v>0.9737206667185195</v>
       </c>
       <c r="U7" t="n">
-        <v>0.01243047659640672</v>
+        <v>0.01243047659640665</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.214444031335575</v>
+        <v>3.214444031335574</v>
       </c>
       <c r="H11" t="n">
-        <v>32.91992493591547</v>
+        <v>32.91992493591545</v>
       </c>
       <c r="I11" t="n">
-        <v>123.9248535180649</v>
+        <v>123.9248535180648</v>
       </c>
       <c r="J11" t="n">
-        <v>272.821919104568</v>
+        <v>272.8219191045679</v>
       </c>
       <c r="K11" t="n">
-        <v>408.889334951003</v>
+        <v>408.8893349510028</v>
       </c>
       <c r="L11" t="n">
-        <v>507.2633764749892</v>
+        <v>507.2633764749889</v>
       </c>
       <c r="M11" t="n">
-        <v>564.4282455172531</v>
+        <v>564.4282455172529</v>
       </c>
       <c r="N11" t="n">
-        <v>573.5612846212854</v>
+        <v>573.5612846212852</v>
       </c>
       <c r="O11" t="n">
-        <v>541.5976567846923</v>
+        <v>541.597656784692</v>
       </c>
       <c r="P11" t="n">
-        <v>462.2410697610952</v>
+        <v>462.241069761095</v>
       </c>
       <c r="Q11" t="n">
-        <v>347.1237928888898</v>
+        <v>347.1237928888896</v>
       </c>
       <c r="R11" t="n">
-        <v>201.9193198833835</v>
+        <v>201.9193198833834</v>
       </c>
       <c r="S11" t="n">
-        <v>73.24914336405949</v>
+        <v>73.24914336405945</v>
       </c>
       <c r="T11" t="n">
-        <v>14.07122874717149</v>
+        <v>14.07122874717148</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2571555225068459</v>
+        <v>0.2571555225068458</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.719879181482993</v>
+        <v>1.719879181482992</v>
       </c>
       <c r="H12" t="n">
-        <v>16.61041209484891</v>
+        <v>16.6104120948489</v>
       </c>
       <c r="I12" t="n">
-        <v>59.21513848526973</v>
+        <v>59.2151384852697</v>
       </c>
       <c r="J12" t="n">
-        <v>162.4908660014262</v>
+        <v>162.4908660014261</v>
       </c>
       <c r="K12" t="n">
-        <v>277.7227711607867</v>
+        <v>277.7227711607866</v>
       </c>
       <c r="L12" t="n">
-        <v>373.4325389443666</v>
+        <v>373.4325389443665</v>
       </c>
       <c r="M12" t="n">
-        <v>435.778159273125</v>
+        <v>435.7781592731248</v>
       </c>
       <c r="N12" t="n">
-        <v>447.3119104507018</v>
+        <v>447.3119104507016</v>
       </c>
       <c r="O12" t="n">
-        <v>409.2030085873155</v>
+        <v>409.2030085873153</v>
       </c>
       <c r="P12" t="n">
-        <v>328.4214903658183</v>
+        <v>328.4214903658181</v>
       </c>
       <c r="Q12" t="n">
-        <v>219.5410688503554</v>
+        <v>219.5410688503553</v>
       </c>
       <c r="R12" t="n">
         <v>106.7833758468125</v>
       </c>
       <c r="S12" t="n">
-        <v>31.94600146307224</v>
+        <v>31.94600146307223</v>
       </c>
       <c r="T12" t="n">
-        <v>6.932320034135395</v>
+        <v>6.932320034135392</v>
       </c>
       <c r="U12" t="n">
-        <v>0.113149946150197</v>
+        <v>0.1131499461501969</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.441888931269176</v>
+        <v>1.441888931269175</v>
       </c>
       <c r="H13" t="n">
-        <v>12.81970340710232</v>
+        <v>12.81970340710231</v>
       </c>
       <c r="I13" t="n">
-        <v>43.36153258762214</v>
+        <v>43.36153258762211</v>
       </c>
       <c r="J13" t="n">
         <v>101.9415474407307</v>
       </c>
       <c r="K13" t="n">
-        <v>167.5212776510915</v>
+        <v>167.5212776510914</v>
       </c>
       <c r="L13" t="n">
-        <v>214.3695598361464</v>
+        <v>214.3695598361463</v>
       </c>
       <c r="M13" t="n">
-        <v>226.02264401704</v>
+        <v>226.0226440170399</v>
       </c>
       <c r="N13" t="n">
-        <v>220.6483307277641</v>
+        <v>220.648330727764</v>
       </c>
       <c r="O13" t="n">
-        <v>203.8044463943014</v>
+        <v>203.8044463943013</v>
       </c>
       <c r="P13" t="n">
-        <v>174.3899121964101</v>
+        <v>174.38991219641</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.7385358720035</v>
+        <v>120.7385358720034</v>
       </c>
       <c r="R13" t="n">
-        <v>64.83256958233947</v>
+        <v>64.83256958233945</v>
       </c>
       <c r="S13" t="n">
-        <v>25.12819164766372</v>
+        <v>25.12819164766371</v>
       </c>
       <c r="T13" t="n">
-        <v>6.160798160877386</v>
+        <v>6.160798160877383</v>
       </c>
       <c r="U13" t="n">
-        <v>0.07864848716013695</v>
+        <v>0.07864848716013692</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34717,7 +34717,7 @@
         <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.27897692436818e-13</v>
+        <v>1.296740492762183e-13</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604673</v>
@@ -34787,16 +34787,16 @@
         <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>263.2420339516669</v>
+        <v>61.98144689737496</v>
       </c>
       <c r="O3" t="n">
-        <v>74.94325823492288</v>
+        <v>263.0434990833254</v>
       </c>
       <c r="P3" t="n">
-        <v>193.94078250313</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025437</v>
+        <v>2.297740302025438</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>31.17050357301274</v>
+        <v>31.1705035730125</v>
       </c>
       <c r="K5" t="n">
-        <v>168.6809534714843</v>
+        <v>168.6809534714839</v>
       </c>
       <c r="L5" t="n">
-        <v>262.0683128566673</v>
+        <v>262.0683128566668</v>
       </c>
       <c r="M5" t="n">
-        <v>308.3757815675274</v>
+        <v>308.3757815675269</v>
       </c>
       <c r="N5" t="n">
-        <v>298.5858286094225</v>
+        <v>298.585828609422</v>
       </c>
       <c r="O5" t="n">
-        <v>236.302052441797</v>
+        <v>236.3020524417965</v>
       </c>
       <c r="P5" t="n">
-        <v>163.6234024880395</v>
+        <v>163.623402488039</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.87258346723951</v>
+        <v>44.8725834672392</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>24.93526194128147</v>
+        <v>24.93526194128133</v>
       </c>
       <c r="K6" t="n">
-        <v>170.5181758178489</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.326648866129669</v>
+        <v>291.3073733509619</v>
       </c>
       <c r="M6" t="n">
-        <v>382.2812817067445</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="N6" t="n">
-        <v>382.2812817067445</v>
+        <v>382.2812817067436</v>
       </c>
       <c r="O6" t="n">
-        <v>315.9410432276337</v>
+        <v>315.9410432276334</v>
       </c>
       <c r="P6" t="n">
-        <v>236.3957252088076</v>
+        <v>12.13896471185257</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>104.7942118299706</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.20742332446342</v>
+        <v>4.207423324463274</v>
       </c>
       <c r="L7" t="n">
-        <v>61.47136096992202</v>
+        <v>61.47136096992183</v>
       </c>
       <c r="M7" t="n">
-        <v>75.30699495381404</v>
+        <v>75.30699495381384</v>
       </c>
       <c r="N7" t="n">
-        <v>79.00587447044762</v>
+        <v>79.00587447044742</v>
       </c>
       <c r="O7" t="n">
-        <v>56.79663626752826</v>
+        <v>56.79663626752808</v>
       </c>
       <c r="P7" t="n">
-        <v>24.84106937132594</v>
+        <v>24.84106937132579</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>260.8726297499555</v>
+        <v>260.8726297499554</v>
       </c>
       <c r="K11" t="n">
-        <v>512.9448964771872</v>
+        <v>512.9448964771871</v>
       </c>
       <c r="L11" t="n">
-        <v>689.1581760554524</v>
+        <v>689.1581760554521</v>
       </c>
       <c r="M11" t="n">
-        <v>783.5955457828129</v>
+        <v>783.5955457828127</v>
       </c>
       <c r="N11" t="n">
-        <v>781.4951454366786</v>
+        <v>781.4951454366784</v>
       </c>
       <c r="O11" t="n">
-        <v>692.2996266257509</v>
+        <v>692.2996266257506</v>
       </c>
       <c r="P11" t="n">
-        <v>552.8067821773083</v>
+        <v>552.8067821773082</v>
       </c>
       <c r="Q11" t="n">
-        <v>337.133093674345</v>
+        <v>337.1330936743448</v>
       </c>
       <c r="R11" t="n">
-        <v>52.0502019422338</v>
+        <v>52.05020194223371</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>35.65323933475946</v>
+        <v>35.65323933475938</v>
       </c>
       <c r="K12" t="n">
-        <v>139.8813321864277</v>
+        <v>139.8813321864276</v>
       </c>
       <c r="L12" t="n">
-        <v>605.7185044679516</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M12" t="n">
-        <v>293.6441253511067</v>
+        <v>759.3491891011064</v>
       </c>
       <c r="N12" t="n">
-        <v>315.9701983673685</v>
+        <v>795.3125727109218</v>
       </c>
       <c r="O12" t="n">
-        <v>573.1171497518807</v>
+        <v>317.3728256017245</v>
       </c>
       <c r="P12" t="n">
-        <v>512.9098515914252</v>
+        <v>194.4470829514879</v>
       </c>
       <c r="Q12" t="n">
-        <v>79.55929476433391</v>
+        <v>79.5592947643338</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463138</v>
       </c>
       <c r="K13" t="n">
         <v>155.649218955782</v>
@@ -35574,7 +35574,7 @@
         <v>252.357018227036</v>
       </c>
       <c r="M13" t="n">
-        <v>276.003954109454</v>
+        <v>276.0039541094539</v>
       </c>
       <c r="N13" t="n">
         <v>275.1779362375661</v>
@@ -35586,7 +35586,7 @@
         <v>182.065904591877</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.97392575088246</v>
+        <v>44.9739257508825</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35738,13 +35738,13 @@
         <v>315.9701983673684</v>
       </c>
       <c r="O15" t="n">
-        <v>266.606764142871</v>
+        <v>308.6519127393025</v>
       </c>
       <c r="P15" t="n">
         <v>512.9098515914252</v>
       </c>
       <c r="Q15" t="n">
-        <v>121.6044433607652</v>
+        <v>79.55929476433388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>18.97980045463127</v>
+        <v>18.97980045463143</v>
       </c>
       <c r="K16" t="n">
-        <v>155.6492189557819</v>
+        <v>155.6492189557821</v>
       </c>
       <c r="L16" t="n">
-        <v>252.3570182270358</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M16" t="n">
-        <v>276.0039541094539</v>
+        <v>276.0039541094541</v>
       </c>
       <c r="N16" t="n">
-        <v>275.177936237566</v>
+        <v>275.1779362375662</v>
       </c>
       <c r="O16" t="n">
-        <v>238.7870074389144</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P16" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.97392575088237</v>
+        <v>44.97392575088253</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>689.1581760554523</v>
       </c>
       <c r="M17" t="n">
-        <v>783.5955457828135</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N17" t="n">
         <v>781.4951454366786</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.97980045463133</v>
+        <v>18.97980045463139</v>
       </c>
       <c r="K19" t="n">
-        <v>155.649218955782</v>
+        <v>155.6492189557821</v>
       </c>
       <c r="L19" t="n">
-        <v>252.3570182270359</v>
+        <v>252.357018227036</v>
       </c>
       <c r="M19" t="n">
         <v>276.003954109454</v>
@@ -36057,10 +36057,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P19" t="n">
-        <v>182.0659045918769</v>
+        <v>182.065904591877</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.97392575088243</v>
+        <v>44.97392575088249</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>337.1330936743449</v>
       </c>
       <c r="R20" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223449</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>35.65323933475943</v>
+        <v>86.41930079361231</v>
       </c>
       <c r="K21" t="n">
         <v>139.8813321864276</v>
@@ -36218,7 +36218,7 @@
         <v>194.447082951488</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.325356223187</v>
+        <v>79.55929476433388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K24" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L24" t="n">
         <v>605.7185044679516</v>
@@ -36446,13 +36446,13 @@
         <v>293.6441253511066</v>
       </c>
       <c r="N24" t="n">
-        <v>795.312572710922</v>
+        <v>358.0153469637999</v>
       </c>
       <c r="O24" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P24" t="n">
-        <v>340.0778628568815</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q24" t="n">
         <v>79.55929476433388</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>18.97980045463136</v>
+        <v>18.97980045463135</v>
       </c>
       <c r="K25" t="n">
         <v>155.649218955782</v>
       </c>
       <c r="L25" t="n">
-        <v>252.357018227036</v>
+        <v>252.3570182270359</v>
       </c>
       <c r="M25" t="n">
         <v>276.003954109454</v>
@@ -36531,10 +36531,10 @@
         <v>238.7870074389145</v>
       </c>
       <c r="P25" t="n">
-        <v>182.065904591877</v>
+        <v>182.0659045918769</v>
       </c>
       <c r="Q25" t="n">
-        <v>44.97392575088246</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K27" t="n">
-        <v>190.6473936452805</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L27" t="n">
-        <v>234.8781591644923</v>
+        <v>605.7185044679516</v>
       </c>
       <c r="M27" t="n">
-        <v>759.3491891011065</v>
+        <v>335.6892739475381</v>
       </c>
       <c r="N27" t="n">
-        <v>795.312572710922</v>
+        <v>315.9701983673684</v>
       </c>
       <c r="O27" t="n">
         <v>266.606764142871</v>
       </c>
       <c r="P27" t="n">
-        <v>194.447082951488</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q27" t="n">
         <v>79.55929476433388</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>18.97980045463129</v>
+        <v>18.97980045463134</v>
       </c>
       <c r="K28" t="n">
-        <v>155.6492189557819</v>
+        <v>155.649218955782</v>
       </c>
       <c r="L28" t="n">
         <v>252.3570182270359</v>
       </c>
       <c r="M28" t="n">
-        <v>276.0039541094539</v>
+        <v>276.003954109454</v>
       </c>
       <c r="N28" t="n">
-        <v>275.177936237566</v>
+        <v>275.1779362375661</v>
       </c>
       <c r="O28" t="n">
-        <v>238.7870074389144</v>
+        <v>238.7870074389145</v>
       </c>
       <c r="P28" t="n">
         <v>182.0659045918769</v>
       </c>
       <c r="Q28" t="n">
-        <v>44.97392575088239</v>
+        <v>44.97392575088244</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K30" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L30" t="n">
         <v>605.7185044679516</v>
       </c>
       <c r="M30" t="n">
-        <v>759.3491891011065</v>
+        <v>335.6892739475381</v>
       </c>
       <c r="N30" t="n">
         <v>315.9701983673684</v>
@@ -36926,7 +36926,7 @@
         <v>266.606764142871</v>
       </c>
       <c r="P30" t="n">
-        <v>353.7151734504351</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q30" t="n">
         <v>79.55929476433388</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.97980045463135</v>
+        <v>18.97980045463134</v>
       </c>
       <c r="K31" t="n">
         <v>155.649218955782</v>
@@ -37148,22 +37148,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K33" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L33" t="n">
-        <v>605.7185044679516</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M33" t="n">
-        <v>759.3491891011065</v>
+        <v>312.6672999742678</v>
       </c>
       <c r="N33" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O33" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P33" t="n">
-        <v>353.7151734504351</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q33" t="n">
         <v>79.55929476433388</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.22551106590672</v>
+        <v>79.22551106590667</v>
       </c>
       <c r="K34" t="n">
-        <v>215.8949295670574</v>
+        <v>215.8949295670573</v>
       </c>
       <c r="L34" t="n">
-        <v>312.6027288383113</v>
+        <v>312.6027288383112</v>
       </c>
       <c r="M34" t="n">
-        <v>336.2496647207294</v>
+        <v>336.2496647207293</v>
       </c>
       <c r="N34" t="n">
-        <v>335.4236468488415</v>
+        <v>335.4236468488414</v>
       </c>
       <c r="O34" t="n">
         <v>299.0327180501898</v>
@@ -37385,22 +37385,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K36" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L36" t="n">
-        <v>605.7185044679516</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M36" t="n">
-        <v>759.3491891011065</v>
+        <v>312.6672999742678</v>
       </c>
       <c r="N36" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O36" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P36" t="n">
-        <v>353.7151734504351</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q36" t="n">
         <v>79.55929476433388</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590674</v>
       </c>
       <c r="K37" t="n">
         <v>215.8949295670574</v>
@@ -37476,13 +37476,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O37" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P37" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K39" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L39" t="n">
-        <v>605.7185044679516</v>
+        <v>234.8781591644923</v>
       </c>
       <c r="M39" t="n">
-        <v>759.3491891011065</v>
+        <v>312.6672999742678</v>
       </c>
       <c r="N39" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O39" t="n">
-        <v>266.606764142871</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P39" t="n">
-        <v>353.7151734504351</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q39" t="n">
         <v>79.55929476433388</v>
@@ -37859,22 +37859,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K42" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L42" t="n">
-        <v>605.7185044679516</v>
+        <v>253.9013337876536</v>
       </c>
       <c r="M42" t="n">
-        <v>759.3491891011065</v>
+        <v>293.6441253511066</v>
       </c>
       <c r="N42" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O42" t="n">
-        <v>425.8748546418184</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P42" t="n">
-        <v>194.447082951488</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q42" t="n">
         <v>79.55929476433388</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590673</v>
       </c>
       <c r="K43" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L43" t="n">
-        <v>312.6027288383114</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M43" t="n">
         <v>336.2496647207294</v>
@@ -37950,13 +37950,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O43" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P43" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q43" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>689.1581760554523</v>
       </c>
       <c r="M44" t="n">
-        <v>783.5955457828144</v>
+        <v>783.5955457828129</v>
       </c>
       <c r="N44" t="n">
         <v>781.4951454366786</v>
@@ -38038,7 +38038,7 @@
         <v>337.1330936743449</v>
       </c>
       <c r="R44" t="n">
-        <v>52.05020194223377</v>
+        <v>52.05020194223449</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>35.65323933475943</v>
       </c>
       <c r="K45" t="n">
-        <v>139.8813321864276</v>
+        <v>404.3465691990062</v>
       </c>
       <c r="L45" t="n">
-        <v>605.7185044679516</v>
+        <v>253.9013337876536</v>
       </c>
       <c r="M45" t="n">
-        <v>759.3491891011065</v>
+        <v>293.6441253511066</v>
       </c>
       <c r="N45" t="n">
         <v>315.9701983673684</v>
       </c>
       <c r="O45" t="n">
-        <v>425.8748546418184</v>
+        <v>660.4690834196006</v>
       </c>
       <c r="P45" t="n">
-        <v>194.447082951488</v>
+        <v>512.9098515914252</v>
       </c>
       <c r="Q45" t="n">
         <v>79.55929476433388</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.22551106590676</v>
+        <v>79.22551106590673</v>
       </c>
       <c r="K46" t="n">
         <v>215.8949295670574</v>
       </c>
       <c r="L46" t="n">
-        <v>312.6027288383114</v>
+        <v>312.6027288383113</v>
       </c>
       <c r="M46" t="n">
         <v>336.2496647207294</v>
@@ -38187,13 +38187,13 @@
         <v>335.4236468488415</v>
       </c>
       <c r="O46" t="n">
-        <v>299.0327180501899</v>
+        <v>299.0327180501898</v>
       </c>
       <c r="P46" t="n">
-        <v>242.3116152031524</v>
+        <v>242.3116152031523</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.2196363621579</v>
+        <v>105.2196363621578</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
